--- a/src/attributions/attributions_saliency_traj_398.xlsx
+++ b/src/attributions/attributions_saliency_traj_398.xlsx
@@ -1573,1140 +1573,1140 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0008662554319016635</v>
+        <v>0.009242469444870949</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001104125985875726</v>
+        <v>0.04719144105911255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001131327939219773</v>
+        <v>0.001829421147704124</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007796198478899896</v>
+        <v>0.01677962765097618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001793089904822409</v>
+        <v>0.0001380348112434149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002214173786342144</v>
+        <v>0.01129090785980225</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000748603546526283</v>
+        <v>0.002183133736252785</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002232383994851261</v>
+        <v>0.0008550766506232321</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003927763551473618</v>
+        <v>0.001573714194819331</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006118582095950842</v>
+        <v>0.008047749288380146</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0009910402586683631</v>
+        <v>0.03050791658461094</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003039750270545483</v>
+        <v>0.005463689565658569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00067759002558887</v>
+        <v>0.02139485254883766</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001017746049910784</v>
+        <v>0.01145896594971418</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0005480559193529189</v>
+        <v>0.01661901734769344</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001100223977118731</v>
+        <v>0.009133925661444664</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.483472341438755e-05</v>
+        <v>0.01611190848052502</v>
       </c>
       <c r="R3" t="n">
-        <v>0.003273958340287209</v>
+        <v>0.0009547774097882211</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0005100663984194398</v>
+        <v>0.001750265480950475</v>
       </c>
       <c r="T3" t="n">
-        <v>5.134139792062342e-05</v>
+        <v>0.007008224725723267</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000536635983735323</v>
+        <v>0.0004825811483897269</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001028393860906363</v>
+        <v>0.003046864178031683</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0007215866935439408</v>
+        <v>0.0004874542355537415</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0004351476381998509</v>
+        <v>0.002267434494569898</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001152017503045499</v>
+        <v>0.00410783663392067</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0002466313308104873</v>
+        <v>0.003427189774811268</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0007643297431059182</v>
+        <v>0.004586776718497276</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.971135058440268e-05</v>
+        <v>0.000165876466780901</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001037339679896832</v>
+        <v>0.006394084077328444</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.0004743155150208622</v>
+        <v>0.001669270801357925</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0008186983177438378</v>
+        <v>0.005722759291529655</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.086869451683015e-05</v>
+        <v>0.003436914179474115</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0006282678805291653</v>
+        <v>0.002020917367190123</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001404260052368045</v>
+        <v>0.008198517374694347</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0006986457738094032</v>
+        <v>6.562087219208479e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0004740090516861528</v>
+        <v>0.0005609873333014548</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.367899524979293e-05</v>
+        <v>0.006040895357728004</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0008176565170288086</v>
+        <v>0.007197453640401363</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0003008630301337689</v>
+        <v>0.001011937973089516</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.140418842434883e-05</v>
+        <v>0.002016299404203892</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.75678311381489e-05</v>
+        <v>0.0005456043290905654</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.001988512231037021</v>
+        <v>0.005538396071642637</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0002631495881360024</v>
+        <v>0.001119124935939908</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0004725619219243526</v>
+        <v>0.001624273834750056</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0001326225756201893</v>
+        <v>2.083298750221729e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.00152673723641783</v>
+        <v>0.006524421740323305</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0004735889669973403</v>
+        <v>0.03939658403396606</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.00262063043192029</v>
+        <v>0.001175804529339075</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0006164998630993068</v>
+        <v>0.001835416071116924</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.001221940387040377</v>
+        <v>0.01879245042800903</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.001810764777474105</v>
+        <v>0.0007737695705145597</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0009268762660212815</v>
+        <v>0.00377738056704402</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0007979655638337135</v>
+        <v>0.005548976361751556</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.001818412449210882</v>
+        <v>0.0008898950763978064</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0003225785912945867</v>
+        <v>0.003657993860542774</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0006516194553114474</v>
+        <v>0.005815105512738228</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.0002759119379334152</v>
+        <v>0.005168454721570015</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.00026677455753088</v>
+        <v>0.0008277107845060527</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0007559203077107668</v>
+        <v>0.01300884503871202</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.001169249648228288</v>
+        <v>0.004779055248945951</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0007424619398079813</v>
+        <v>0.004816003143787384</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.002031540730968118</v>
+        <v>0.009241526946425438</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0008950745104812086</v>
+        <v>0.001898937160149217</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0004511328879743814</v>
+        <v>0.007079124450683594</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0002313532750122249</v>
+        <v>0.008498986251652241</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0015310033923015</v>
+        <v>0.001551217515952885</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0005235548596829176</v>
+        <v>0.01104951836168766</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.908399619627744e-05</v>
+        <v>0.01085963938385248</v>
       </c>
       <c r="BQ3" t="n">
-        <v>9.149221295956522e-05</v>
+        <v>0.0004870701231993735</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0007201079279184341</v>
+        <v>0.0005268910899758339</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.0004976434865966439</v>
+        <v>0.002577770734205842</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0005900889518670738</v>
+        <v>0.001304588280618191</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0002966876782011241</v>
+        <v>0.00520769041031599</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.000775952881667763</v>
+        <v>0.01824897527694702</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.0001485846296418458</v>
+        <v>0.0001079155917977914</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.0001476634060963988</v>
+        <v>9.29390371311456e-05</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.001670730765908957</v>
+        <v>0.001135080470703542</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0003533678827807307</v>
+        <v>0.009482575580477715</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0006075046840123832</v>
+        <v>0.001256315386854112</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.001030672574415803</v>
+        <v>0.001552364556118846</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.00158610031940043</v>
+        <v>0.003210107563063502</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.000209951278520748</v>
+        <v>0.003841682802885771</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.001116931554861367</v>
+        <v>0.008341759443283081</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0001998284424189478</v>
+        <v>0.001960596302524209</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0003139267791993916</v>
+        <v>0.00422391714528203</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0005508092581294477</v>
+        <v>0.002121519763022661</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.0003593696746975183</v>
+        <v>0.002211259678006172</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0002721649943850935</v>
+        <v>0.00272528943605721</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.00016667993622832</v>
+        <v>0.000207059842068702</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0002595216210465878</v>
+        <v>0.001551399356685579</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0005767862894572318</v>
+        <v>0.005693033803254366</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0009042036253958941</v>
+        <v>0.005010718479752541</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0005283107166178524</v>
+        <v>0.00421373825520277</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.0007245214655995369</v>
+        <v>0.00902077928185463</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.0004471949650906026</v>
+        <v>0.01161062065511942</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0003443618188612163</v>
+        <v>0.009983308613300323</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0001713348901830614</v>
+        <v>0.001750605995766819</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0003690795274451375</v>
+        <v>0.005301119294017553</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.001157063758000731</v>
+        <v>0.0009762049303390086</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.0003365917946211994</v>
+        <v>0.003241928294301033</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.000993847381323576</v>
+        <v>0.006385174114257097</v>
       </c>
       <c r="CX3" t="n">
-        <v>7.292215013876557e-05</v>
+        <v>0.002237681997939944</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0001565557176945731</v>
+        <v>0.00644703721627593</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0007251682691276073</v>
+        <v>0.001956173917278647</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.0006388092297129333</v>
+        <v>0.003528431057929993</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0001369696110486984</v>
+        <v>0.003177518025040627</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0001839233300415799</v>
+        <v>0.0008929980103857815</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0005570108769461513</v>
+        <v>0.0005684049101546407</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0006094321724958718</v>
+        <v>0.005799141712486744</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.001775461831130087</v>
+        <v>0.01320813875645399</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.002491800813004375</v>
+        <v>0.0003337033558636904</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.000115447212010622</v>
+        <v>0.007693838328123093</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.001713548088446259</v>
+        <v>0.006521150004118681</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.002404769649729133</v>
+        <v>0.006584040820598602</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.002354764146730304</v>
+        <v>0.01010343059897423</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0006092586554586887</v>
+        <v>0.0003733600024133921</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0003698910004459321</v>
+        <v>0.00116759177763015</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0004208462196402252</v>
+        <v>0.008815936744213104</v>
       </c>
       <c r="DO3" t="n">
-        <v>2.87182647298323e-05</v>
+        <v>0.00530930794775486</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.001311458647251129</v>
+        <v>0.003243394196033478</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0004438708710949868</v>
+        <v>0.006585897412151098</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.0004365639470051974</v>
+        <v>0.0006599151529371738</v>
       </c>
       <c r="DS3" t="n">
-        <v>8.36814142530784e-05</v>
+        <v>0.005731214769184589</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0003261096717324108</v>
+        <v>0.0007341436576098204</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.0002360536018386483</v>
+        <v>0.00318459514528513</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0002298123581567779</v>
+        <v>0.002571107354015112</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0005620574811473489</v>
+        <v>0.002127313986420631</v>
       </c>
       <c r="DX3" t="n">
-        <v>7.15382193448022e-05</v>
+        <v>0.006031826138496399</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0001921218499774113</v>
+        <v>0.008792264387011528</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.0003075930289924145</v>
+        <v>0.001293137902393937</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0009166307281702757</v>
+        <v>0.009033365175127983</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.000317524914862588</v>
+        <v>0.0007130755111575127</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0005738898762501776</v>
+        <v>0.001459125080145895</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0001168550807051361</v>
+        <v>0.00337718753144145</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0003923862532246858</v>
+        <v>0.001003636512905359</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.0002664001367520541</v>
+        <v>0.0009262855164706707</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001831981004215777</v>
+        <v>0.001310235471464694</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0003206437395419925</v>
+        <v>0.0009948206134140491</v>
       </c>
       <c r="EI3" t="n">
-        <v>8.294543658848852e-05</v>
+        <v>0.003993221092969179</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0004800510359928012</v>
+        <v>0.0009793840581551194</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.0009284711559303105</v>
+        <v>0.0001843007630668581</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0003537711163517088</v>
+        <v>0.003592126304283738</v>
       </c>
       <c r="EM3" t="n">
-        <v>8.227875514421612e-05</v>
+        <v>0.001014704583212733</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.0007033540168777108</v>
+        <v>0.001172739081084728</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.0005363613017834723</v>
+        <v>0.004319521132856607</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.001148159499280155</v>
+        <v>0.003089906182140112</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.0002472228952683508</v>
+        <v>0.001422884175553918</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0001387254014844075</v>
+        <v>0.004691152833402157</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0003301150863990188</v>
+        <v>0.005092812702059746</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.0003982824564445764</v>
+        <v>0.01775632239878178</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0004594234633259475</v>
+        <v>0.003616589121520519</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.0001923168310895562</v>
+        <v>0.003748293966054916</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.0004962894599884748</v>
+        <v>0.00125773111358285</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.0003720519598573446</v>
+        <v>0.003806994063779712</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0009796961676329374</v>
+        <v>0.005405740812420845</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0001866659004008397</v>
+        <v>0.0004473218286875635</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0003445991897024214</v>
+        <v>0.004392821341753006</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.0005654103006236255</v>
+        <v>0.001908714533783495</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.000595084682572633</v>
+        <v>0.003292085835710168</v>
       </c>
       <c r="FD3" t="n">
-        <v>6.207121623447165e-05</v>
+        <v>0.003414360573515296</v>
       </c>
       <c r="FE3" t="n">
-        <v>6.4864318119362e-05</v>
+        <v>0.0006595845334231853</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0005354906315915287</v>
+        <v>0.001589015475474298</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0005802723462693393</v>
+        <v>0.004035197664052248</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0001058556517818943</v>
+        <v>0.008208377286791801</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0007205235888250172</v>
+        <v>0.003356321947649121</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.0005350426072254777</v>
+        <v>0.001708153868094087</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.0001370643440168351</v>
+        <v>0.00433329539373517</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.0004422473139129579</v>
+        <v>0.00665395287796855</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0002814381732605398</v>
+        <v>0.001208975445479155</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.387133670505136e-05</v>
+        <v>0.002855119528248906</v>
       </c>
       <c r="FO3" t="n">
-        <v>2.846467032213695e-05</v>
+        <v>0.002523495815694332</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.0001335309643764049</v>
+        <v>0.00448597501963377</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.0004272870137356222</v>
+        <v>0.002168602310121059</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0002828070428222418</v>
+        <v>0.001790540758520365</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.001543694525025785</v>
+        <v>0.001868282910436392</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0002324138913536444</v>
+        <v>0.01145441643893719</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.000111386390926782</v>
+        <v>0.0026862439699471</v>
       </c>
       <c r="FV3" t="n">
-        <v>8.002785034477711e-05</v>
+        <v>0.0003607650869525969</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.0002593675744719803</v>
+        <v>0.002559324726462364</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.0008191234664991498</v>
+        <v>0.001219025114551187</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0004235786036588252</v>
+        <v>0.000791651604231447</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.001085751224309206</v>
+        <v>0.009356183931231499</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0006493605324067175</v>
+        <v>0.001770670874975622</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0006539709283970296</v>
+        <v>0.007653066888451576</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.0002313786826562136</v>
+        <v>0.002402289770543575</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0005291697452776134</v>
+        <v>0.005477508064359426</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.0001108793949242681</v>
+        <v>0.008362571708858013</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0005476715159602463</v>
+        <v>0.004611436277627945</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0003898877184838057</v>
+        <v>0.0001280186697840691</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.530364534119144e-05</v>
+        <v>0.002947924891486764</v>
       </c>
       <c r="B4" t="n">
-        <v>4.054204964631936e-06</v>
+        <v>0.03280545771121979</v>
       </c>
       <c r="C4" t="n">
-        <v>4.678537879954092e-05</v>
+        <v>0.002339058555662632</v>
       </c>
       <c r="D4" t="n">
-        <v>3.50343293575861e-06</v>
+        <v>0.01778316311538219</v>
       </c>
       <c r="E4" t="n">
-        <v>2.468171805958264e-05</v>
+        <v>0.005369465332478285</v>
       </c>
       <c r="F4" t="n">
-        <v>7.049910891510081e-06</v>
+        <v>0.008615980856120586</v>
       </c>
       <c r="G4" t="n">
-        <v>4.294800419302192e-06</v>
+        <v>0.003224899526685476</v>
       </c>
       <c r="H4" t="n">
-        <v>1.630884980841074e-05</v>
+        <v>0.002307881833985448</v>
       </c>
       <c r="I4" t="n">
-        <v>4.273812373867258e-05</v>
+        <v>0.003419493557885289</v>
       </c>
       <c r="J4" t="n">
-        <v>6.643334700129344e-07</v>
+        <v>0.005836810916662216</v>
       </c>
       <c r="K4" t="n">
-        <v>1.169921051769052e-05</v>
+        <v>0.02403227612376213</v>
       </c>
       <c r="L4" t="n">
-        <v>4.442923818714917e-05</v>
+        <v>0.0008490533800795674</v>
       </c>
       <c r="M4" t="n">
-        <v>1.883625827758806e-06</v>
+        <v>0.01551007386296988</v>
       </c>
       <c r="N4" t="n">
-        <v>5.686454187525669e-06</v>
+        <v>0.007310581393539906</v>
       </c>
       <c r="O4" t="n">
-        <v>4.276492745702853e-06</v>
+        <v>0.01068428345024586</v>
       </c>
       <c r="P4" t="n">
-        <v>9.234273420588579e-06</v>
+        <v>0.002680481877177954</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.70538933161879e-05</v>
+        <v>0.002534300787374377</v>
       </c>
       <c r="R4" t="n">
-        <v>4.317271304898895e-05</v>
+        <v>0.002960771089419723</v>
       </c>
       <c r="S4" t="n">
-        <v>1.277179990211152e-06</v>
+        <v>0.001720662694424391</v>
       </c>
       <c r="T4" t="n">
-        <v>1.820305988076143e-05</v>
+        <v>0.00422517117112875</v>
       </c>
       <c r="U4" t="n">
-        <v>3.725165925061447e-06</v>
+        <v>0.001411990029737353</v>
       </c>
       <c r="V4" t="n">
-        <v>1.683373557170853e-05</v>
+        <v>0.004007472191005945</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98621046365588e-06</v>
+        <v>0.005402926821261644</v>
       </c>
       <c r="X4" t="n">
-        <v>5.847566626471234e-06</v>
+        <v>0.002842095214873552</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.436220197272633e-07</v>
+        <v>0.003677321830764413</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.091683225240558e-05</v>
+        <v>0.004525172989815474</v>
       </c>
       <c r="AA4" t="n">
-        <v>3.88787520932965e-06</v>
+        <v>0.003749377094209194</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.398625035013538e-06</v>
+        <v>1.811585389077663e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.755792360811029e-06</v>
+        <v>0.003152636345475912</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.558049674116774e-06</v>
+        <v>0.0002540461136959493</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.282816123828525e-06</v>
+        <v>0.0007168017327785492</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.425865427037934e-06</v>
+        <v>0.0005136645631864667</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.954687483404996e-06</v>
+        <v>0.001397314015775919</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.202259682031581e-06</v>
+        <v>0.001463894732296467</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.199387315864442e-05</v>
+        <v>0.001366973505355418</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.428924957115669e-06</v>
+        <v>0.002288162242621183</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.390994839312043e-06</v>
+        <v>0.002801521914079785</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.34109486680245e-05</v>
+        <v>0.004472492728382349</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.749816985669895e-06</v>
+        <v>0.00158388854470104</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.456886694650166e-06</v>
+        <v>0.00127121212426573</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.127448053419357e-06</v>
+        <v>0.002117315074428916</v>
       </c>
       <c r="AP4" t="n">
-        <v>7.5078160080011e-06</v>
+        <v>0.003308319486677647</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4.920733545077383e-07</v>
+        <v>0.0009100089082494378</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.432239969290094e-06</v>
+        <v>0.002134380862116814</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.597956149154925e-07</v>
+        <v>0.003047912381589413</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.465143850509776e-05</v>
+        <v>0.002242505084723234</v>
       </c>
       <c r="AU4" t="n">
-        <v>1.201995200972306e-05</v>
+        <v>0.02233587577939034</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.734499841812067e-05</v>
+        <v>0.001584518468007445</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.521538365523156e-06</v>
+        <v>0.004935343749821186</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.240978508576518e-05</v>
+        <v>0.001041138544678688</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.720944419503212e-05</v>
+        <v>0.002863808535039425</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.57352769242425e-06</v>
+        <v>0.0007845891523174942</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.426514427294023e-05</v>
+        <v>0.0007058927440084517</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.00246213353239e-05</v>
+        <v>0.004724040627479553</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.065174840026884e-06</v>
+        <v>0.001856108894571662</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.376439392217435e-06</v>
+        <v>0.005292255431413651</v>
       </c>
       <c r="BE4" t="n">
-        <v>9.994096217269544e-06</v>
+        <v>0.005351375322788954</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.987096079072217e-06</v>
+        <v>0.002630901988595724</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.991251565414132e-06</v>
+        <v>0.007143591064959764</v>
       </c>
       <c r="BH4" t="n">
-        <v>2.088965629809536e-06</v>
+        <v>0.003336219349876046</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.371555183344753e-06</v>
+        <v>0.004599552601575851</v>
       </c>
       <c r="BJ4" t="n">
-        <v>7.426807769661536e-06</v>
+        <v>0.002445173216983676</v>
       </c>
       <c r="BK4" t="n">
-        <v>6.598513664357597e-07</v>
+        <v>0.002185064367949963</v>
       </c>
       <c r="BL4" t="n">
-        <v>4.984618499292992e-06</v>
+        <v>0.002481537638232112</v>
       </c>
       <c r="BM4" t="n">
-        <v>9.614623195375316e-07</v>
+        <v>0.003600734518840909</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.38136456371285e-05</v>
+        <v>0.001909847953356802</v>
       </c>
       <c r="BO4" t="n">
-        <v>4.332828666520072e-06</v>
+        <v>0.001761878607794642</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.121558489103336e-05</v>
+        <v>0.001871749525889754</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.358210273698205e-06</v>
+        <v>0.002210650127381086</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.007531409413787e-06</v>
+        <v>0.0002760296047199517</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.123191304941429e-05</v>
+        <v>0.001183290150947869</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.016605892800726e-05</v>
+        <v>0.001333657535724342</v>
       </c>
       <c r="BU4" t="n">
-        <v>6.014959126332542e-06</v>
+        <v>0.002444169018417597</v>
       </c>
       <c r="BV4" t="n">
-        <v>7.501882464566734e-06</v>
+        <v>0.01171885244548321</v>
       </c>
       <c r="BW4" t="n">
-        <v>8.367024747713003e-06</v>
+        <v>0.002618096070364118</v>
       </c>
       <c r="BX4" t="n">
-        <v>7.667465979466215e-06</v>
+        <v>0.004187427461147308</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.590685315022711e-05</v>
+        <v>0.00155063159763813</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.065446758730104e-05</v>
+        <v>0.002809145953506231</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.077751448974595e-06</v>
+        <v>0.000430589250754565</v>
       </c>
       <c r="CB4" t="n">
-        <v>8.360567335330416e-06</v>
+        <v>0.002388471271842718</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.936541593750007e-05</v>
+        <v>0.004109238274395466</v>
       </c>
       <c r="CD4" t="n">
-        <v>4.481706582737388e-06</v>
+        <v>0.001579720992594957</v>
       </c>
       <c r="CE4" t="n">
-        <v>7.722415830357932e-06</v>
+        <v>0.005202739033848047</v>
       </c>
       <c r="CF4" t="n">
-        <v>8.217103641072754e-06</v>
+        <v>0.002743255812674761</v>
       </c>
       <c r="CG4" t="n">
-        <v>2.854091690096539e-06</v>
+        <v>0.002251005731523037</v>
       </c>
       <c r="CH4" t="n">
-        <v>6.097141067584744e-06</v>
+        <v>0.0009048980427905917</v>
       </c>
       <c r="CI4" t="n">
-        <v>4.955534222972346e-07</v>
+        <v>0.002049124101176858</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.173567738987913e-06</v>
+        <v>0.001365044969134033</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.108947001033812e-06</v>
+        <v>0.0006197997718118131</v>
       </c>
       <c r="CL4" t="n">
-        <v>7.110400474630296e-06</v>
+        <v>0.001849830383434892</v>
       </c>
       <c r="CM4" t="n">
-        <v>8.340006161233759e-07</v>
+        <v>0.003484366461634636</v>
       </c>
       <c r="CN4" t="n">
-        <v>1.498342317063361e-05</v>
+        <v>0.0008852654136717319</v>
       </c>
       <c r="CO4" t="n">
-        <v>1.13294390757801e-07</v>
+        <v>0.0006280867382884026</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.546321411500685e-06</v>
+        <v>0.004340421408414841</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.06305906228954e-05</v>
+        <v>0.004940305836498737</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.505547399778152e-06</v>
+        <v>0.002131478395313025</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.769514710758813e-06</v>
+        <v>0.004592141602188349</v>
       </c>
       <c r="CT4" t="n">
-        <v>3.719349251696258e-06</v>
+        <v>0.005180567502975464</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.435159720131196e-05</v>
+        <v>0.0008280274923890829</v>
       </c>
       <c r="CV4" t="n">
-        <v>5.708201570087112e-06</v>
+        <v>0.001276464550755918</v>
       </c>
       <c r="CW4" t="n">
-        <v>5.181229425943457e-06</v>
+        <v>0.004638776183128357</v>
       </c>
       <c r="CX4" t="n">
-        <v>5.986435098748188e-06</v>
+        <v>0.002843111520633101</v>
       </c>
       <c r="CY4" t="n">
-        <v>1.186028953270579e-06</v>
+        <v>0.00353429839015007</v>
       </c>
       <c r="CZ4" t="n">
-        <v>8.982121471490245e-06</v>
+        <v>0.001024781842716038</v>
       </c>
       <c r="DA4" t="n">
-        <v>9.584073268342763e-08</v>
+        <v>0.002600279171019793</v>
       </c>
       <c r="DB4" t="n">
-        <v>2.554511183916475e-06</v>
+        <v>0.001323213800787926</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.76037303845078e-06</v>
+        <v>0.001202184706926346</v>
       </c>
       <c r="DD4" t="n">
-        <v>7.373282642220147e-06</v>
+        <v>0.001122735906392336</v>
       </c>
       <c r="DE4" t="n">
-        <v>8.036342478590086e-06</v>
+        <v>0.00188516650814563</v>
       </c>
       <c r="DF4" t="n">
-        <v>1.719395004329272e-05</v>
+        <v>0.004385742824524641</v>
       </c>
       <c r="DG4" t="n">
-        <v>2.641697028593626e-05</v>
+        <v>0.001035754568874836</v>
       </c>
       <c r="DH4" t="n">
-        <v>6.253517312870827e-06</v>
+        <v>0.009901490993797779</v>
       </c>
       <c r="DI4" t="n">
-        <v>9.326503459305968e-06</v>
+        <v>0.003088183701038361</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2.611534455354558e-06</v>
+        <v>0.0009536295547150075</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.696189065114595e-05</v>
+        <v>0.002778710564598441</v>
       </c>
       <c r="DL4" t="n">
-        <v>7.769018338876776e-06</v>
+        <v>0.00130720972083509</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.693684498604853e-05</v>
+        <v>0.0008019760134629905</v>
       </c>
       <c r="DN4" t="n">
-        <v>2.809397301462013e-06</v>
+        <v>0.001512863789685071</v>
       </c>
       <c r="DO4" t="n">
-        <v>9.501108593212848e-07</v>
+        <v>0.001409488962963223</v>
       </c>
       <c r="DP4" t="n">
-        <v>1.990589680644916e-06</v>
+        <v>0.001324761775322258</v>
       </c>
       <c r="DQ4" t="n">
-        <v>5.122635229781736e-06</v>
+        <v>0.001096857362426817</v>
       </c>
       <c r="DR4" t="n">
-        <v>2.354033540541423e-06</v>
+        <v>0.001801646081730723</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.077842262020567e-05</v>
+        <v>0.002773152198642492</v>
       </c>
       <c r="DT4" t="n">
-        <v>3.858766376652056e-06</v>
+        <v>0.0003904622280970216</v>
       </c>
       <c r="DU4" t="n">
-        <v>4.230301442476048e-08</v>
+        <v>0.001260719262063503</v>
       </c>
       <c r="DV4" t="n">
-        <v>3.713031219376717e-06</v>
+        <v>0.003092656377702951</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.487204599470715e-07</v>
+        <v>0.001378813525661826</v>
       </c>
       <c r="DX4" t="n">
-        <v>9.221309937856859e-07</v>
+        <v>3.415274113649502e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.006913852412254e-06</v>
+        <v>0.004921239335089922</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3.44660907103389e-06</v>
+        <v>0.0005155310500413179</v>
       </c>
       <c r="EA4" t="n">
-        <v>5.008990228816401e-06</v>
+        <v>0.002045867266133428</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.138440206384985e-06</v>
+        <v>0.0004558535583782941</v>
       </c>
       <c r="EC4" t="n">
-        <v>2.260399014630821e-06</v>
+        <v>0.001308101462200284</v>
       </c>
       <c r="ED4" t="n">
-        <v>3.231531763958628e-06</v>
+        <v>0.0004301772569306195</v>
       </c>
       <c r="EE4" t="n">
-        <v>5.474224053614307e-06</v>
+        <v>0.0002282868081238121</v>
       </c>
       <c r="EF4" t="n">
-        <v>4.718822765426012e-06</v>
+        <v>0.0003456661361269653</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.185230030387174e-05</v>
+        <v>0.003150530625134706</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.847657692153007e-06</v>
+        <v>0.001665914664044976</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.407432137057185e-06</v>
+        <v>0.002012438140809536</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2.770818525732466e-07</v>
+        <v>0.0005577500560320914</v>
       </c>
       <c r="EK4" t="n">
-        <v>4.465839992917608e-06</v>
+        <v>0.002042885171249509</v>
       </c>
       <c r="EL4" t="n">
-        <v>4.743936642626068e-06</v>
+        <v>0.0008264497737400234</v>
       </c>
       <c r="EM4" t="n">
-        <v>5.814665200887248e-06</v>
+        <v>0.0004000484477728605</v>
       </c>
       <c r="EN4" t="n">
-        <v>4.632463060261216e-06</v>
+        <v>0.0007521156221628189</v>
       </c>
       <c r="EO4" t="n">
-        <v>5.766926733485889e-06</v>
+        <v>0.0002459913957864046</v>
       </c>
       <c r="EP4" t="n">
-        <v>8.614536454842892e-06</v>
+        <v>0.003452015342190862</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.205997250508517e-06</v>
+        <v>0.001562107936479151</v>
       </c>
       <c r="ER4" t="n">
-        <v>4.886081114818808e-06</v>
+        <v>0.002519428497180343</v>
       </c>
       <c r="ES4" t="n">
-        <v>5.764074103353778e-06</v>
+        <v>0.002340428531169891</v>
       </c>
       <c r="ET4" t="n">
-        <v>7.278948032762855e-06</v>
+        <v>0.008671900257468224</v>
       </c>
       <c r="EU4" t="n">
-        <v>9.295267773268279e-06</v>
+        <v>0.003593070432543755</v>
       </c>
       <c r="EV4" t="n">
-        <v>5.076051820651628e-06</v>
+        <v>0.005150143057107925</v>
       </c>
       <c r="EW4" t="n">
-        <v>9.616757779440377e-06</v>
+        <v>0.0001081324589904398</v>
       </c>
       <c r="EX4" t="n">
-        <v>3.889312210958451e-06</v>
+        <v>0.0008721661870367825</v>
       </c>
       <c r="EY4" t="n">
-        <v>5.997279004077427e-06</v>
+        <v>0.004473123699426651</v>
       </c>
       <c r="EZ4" t="n">
-        <v>6.788330665585818e-06</v>
+        <v>0.001679373672232032</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.946917791428859e-06</v>
+        <v>0.003117513144388795</v>
       </c>
       <c r="FB4" t="n">
-        <v>3.878677944157971e-06</v>
+        <v>0.001218748511746526</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.100050553759502e-06</v>
+        <v>0.002276742132380605</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.997126673813909e-06</v>
+        <v>0.00206920993514359</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.592967575765215e-06</v>
+        <v>0.0007873887079767883</v>
       </c>
       <c r="FF4" t="n">
-        <v>9.496910934103653e-06</v>
+        <v>0.002069254405796528</v>
       </c>
       <c r="FG4" t="n">
-        <v>2.124093498423463e-06</v>
+        <v>0.0006266703130677342</v>
       </c>
       <c r="FH4" t="n">
-        <v>4.122859081689967e-06</v>
+        <v>0.00257001630961895</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.263118742324878e-06</v>
+        <v>0.00186573714017868</v>
       </c>
       <c r="FJ4" t="n">
-        <v>6.124774699856061e-06</v>
+        <v>0.002760299015790224</v>
       </c>
       <c r="FK4" t="n">
-        <v>2.153249624825548e-06</v>
+        <v>0.0002113505179295316</v>
       </c>
       <c r="FL4" t="n">
-        <v>4.789591002918314e-06</v>
+        <v>0.0008936415542848408</v>
       </c>
       <c r="FM4" t="n">
-        <v>1.572666633364861e-06</v>
+        <v>0.0008738380274735391</v>
       </c>
       <c r="FN4" t="n">
-        <v>7.347473456320586e-07</v>
+        <v>0.002080164849758148</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.30211756186327e-05</v>
+        <v>0.001076946035027504</v>
       </c>
       <c r="FP4" t="n">
-        <v>2.514093466743361e-06</v>
+        <v>0.0008680990431457758</v>
       </c>
       <c r="FQ4" t="n">
-        <v>8.529426850145683e-06</v>
+        <v>0.003548114560544491</v>
       </c>
       <c r="FR4" t="n">
-        <v>4.244737283443101e-06</v>
+        <v>0.002171684987843037</v>
       </c>
       <c r="FS4" t="n">
-        <v>3.761541165658855e-06</v>
+        <v>0.00147516094148159</v>
       </c>
       <c r="FT4" t="n">
-        <v>4.349825758254156e-06</v>
+        <v>0.00192985450848937</v>
       </c>
       <c r="FU4" t="n">
-        <v>3.020566964551108e-06</v>
+        <v>9.682247036835179e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>4.32262913818704e-06</v>
+        <v>0.001863454934209585</v>
       </c>
       <c r="FW4" t="n">
-        <v>2.219378757217783e-06</v>
+        <v>0.0001816281001083553</v>
       </c>
       <c r="FX4" t="n">
-        <v>1.364687932436937e-06</v>
+        <v>0.001220178324729204</v>
       </c>
       <c r="FY4" t="n">
-        <v>5.436724222818157e-06</v>
+        <v>0.004306875634938478</v>
       </c>
       <c r="FZ4" t="n">
-        <v>6.382737410604022e-06</v>
+        <v>0.0008154776296578348</v>
       </c>
       <c r="GA4" t="n">
-        <v>4.977604476152919e-06</v>
+        <v>0.001841571065597236</v>
       </c>
       <c r="GB4" t="n">
-        <v>6.467141247412656e-06</v>
+        <v>8.12058278825134e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>5.545260819417308e-07</v>
+        <v>0.004472238942980766</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.773642179614399e-05</v>
+        <v>0.002505081938579679</v>
       </c>
       <c r="GE4" t="n">
-        <v>4.131712103117025e-06</v>
+        <v>0.01163824275135994</v>
       </c>
       <c r="GF4" t="n">
-        <v>1.02600579339196e-05</v>
+        <v>0.001436441205441952</v>
       </c>
       <c r="GG4" t="n">
-        <v>2.439740910631372e-06</v>
+        <v>0.00143499777186662</v>
       </c>
     </row>
     <row r="5">
@@ -3280,1709 +3280,1709 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.241054002955934e-08</v>
+        <v>5.210547548983868e-09</v>
       </c>
       <c r="B6" t="n">
-        <v>2.207152860478345e-08</v>
+        <v>5.802372982088855e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>1.641274707253615e-07</v>
+        <v>3.54993279216842e-09</v>
       </c>
       <c r="D6" t="n">
-        <v>5.346634779357373e-08</v>
+        <v>9.998607453098884e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>1.310012294197804e-07</v>
+        <v>1.423499629282787e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>7.359159326369991e-08</v>
+        <v>5.918236567481472e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>1.268521998554206e-08</v>
+        <v>1.083317702210707e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>2.661375120283083e-09</v>
+        <v>7.498470733224849e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>1.869175605406781e-07</v>
+        <v>3.08601943999065e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>1.847055486337013e-08</v>
+        <v>1.809808303221416e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>1.588426101761797e-08</v>
+        <v>3.734310993763756e-08</v>
       </c>
       <c r="L6" t="n">
-        <v>1.856189726368029e-07</v>
+        <v>3.926594605019318e-09</v>
       </c>
       <c r="M6" t="n">
-        <v>7.517728306538629e-08</v>
+        <v>5.230234378927889e-08</v>
       </c>
       <c r="N6" t="n">
-        <v>1.110023646333502e-07</v>
+        <v>3.262801584469344e-08</v>
       </c>
       <c r="O6" t="n">
-        <v>3.917189772550955e-08</v>
+        <v>1.653098813392262e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>3.38774164276856e-08</v>
+        <v>1.712141894927299e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.301309944476088e-09</v>
+        <v>2.408365595840678e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.838306786794419e-07</v>
+        <v>8.663825212806842e-10</v>
       </c>
       <c r="S6" t="n">
-        <v>3.462922038011129e-08</v>
+        <v>9.959882696364275e-09</v>
       </c>
       <c r="T6" t="n">
-        <v>2.647134067501611e-08</v>
+        <v>9.047495197478383e-09</v>
       </c>
       <c r="U6" t="n">
-        <v>1.601021359931565e-08</v>
+        <v>8.937868223313217e-09</v>
       </c>
       <c r="V6" t="n">
-        <v>8.025768494235308e-08</v>
+        <v>5.294419569423781e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>2.259476872268351e-08</v>
+        <v>1.516087522190901e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>1.590173503984715e-08</v>
+        <v>1.020812057106468e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.854257878468161e-08</v>
+        <v>3.121901670510852e-08</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.428462148567178e-08</v>
+        <v>3.505796541958262e-09</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.379726246232622e-09</v>
+        <v>1.324232190569319e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.015759807491804e-09</v>
+        <v>6.166951393993259e-10</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.405507070259773e-08</v>
+        <v>4.386688345903167e-09</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.124627750456966e-08</v>
+        <v>1.979936881113531e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.400864135803204e-08</v>
+        <v>1.268521820918522e-08</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.115454560997932e-10</v>
+        <v>1.503611990472109e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.584309043487167e-10</v>
+        <v>4.679572729315851e-09</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.211175693072164e-08</v>
+        <v>8.25355694900054e-09</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.033794845284319e-07</v>
+        <v>7.543981439539493e-09</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.944027137161356e-08</v>
+        <v>3.438432649716106e-09</v>
       </c>
       <c r="AK6" t="n">
-        <v>6.860521484242099e-09</v>
+        <v>7.989385153450712e-09</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.052333864492994e-08</v>
+        <v>1.313552822068687e-08</v>
       </c>
       <c r="AM6" t="n">
-        <v>8.460568245993727e-09</v>
+        <v>9.05348906954373e-10</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.238516572106164e-08</v>
+        <v>4.647136897517612e-09</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.403345078505481e-08</v>
+        <v>2.969197332447493e-09</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.078316245184396e-07</v>
+        <v>5.875801623034249e-09</v>
       </c>
       <c r="AQ6" t="n">
-        <v>3.243349588899491e-09</v>
+        <v>1.071475175251635e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.795178583563484e-08</v>
+        <v>3.790921798696445e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.225554591144373e-08</v>
+        <v>9.415861867978492e-09</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.704072071286646e-08</v>
+        <v>4.440550149809042e-09</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.999375858792064e-09</v>
+        <v>3.386116276260509e-08</v>
       </c>
       <c r="AV6" t="n">
-        <v>9.055638372501562e-08</v>
+        <v>6.544170094713309e-09</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.401405379577227e-09</v>
+        <v>5.106065970039708e-08</v>
       </c>
       <c r="AX6" t="n">
-        <v>4.768360284401751e-08</v>
+        <v>8.789424299493476e-09</v>
       </c>
       <c r="AY6" t="n">
-        <v>8.926579653234512e-08</v>
+        <v>1.059219734145245e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3.438761808638446e-08</v>
+        <v>6.538527053123744e-09</v>
       </c>
       <c r="BA6" t="n">
-        <v>6.121126006064515e-08</v>
+        <v>4.033288369953425e-09</v>
       </c>
       <c r="BB6" t="n">
-        <v>5.768656308191566e-08</v>
+        <v>1.716413322583321e-08</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.578053243633804e-08</v>
+        <v>1.062005594576476e-09</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.840063923452817e-08</v>
+        <v>4.083286153644394e-09</v>
       </c>
       <c r="BE6" t="n">
-        <v>6.069738134328873e-08</v>
+        <v>6.919987249887072e-09</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.149506705961812e-08</v>
+        <v>2.33595076615245e-09</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.842635637989588e-08</v>
+        <v>2.51714791232871e-08</v>
       </c>
       <c r="BH6" t="n">
-        <v>5.660309554400555e-08</v>
+        <v>1.139850169806778e-08</v>
       </c>
       <c r="BI6" t="n">
-        <v>7.464148410463167e-09</v>
+        <v>2.641118612700666e-08</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.78858437954932e-08</v>
+        <v>3.567212303323686e-08</v>
       </c>
       <c r="BK6" t="n">
-        <v>5.138785041935989e-08</v>
+        <v>2.784888764040261e-09</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.428056771781485e-08</v>
+        <v>2.375099672491388e-09</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.938764869815259e-09</v>
+        <v>1.611921846000897e-10</v>
       </c>
       <c r="BN6" t="n">
-        <v>8.747272772779979e-08</v>
+        <v>1.777006097825051e-08</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.535628868509775e-08</v>
+        <v>5.94880722459834e-09</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.704488283849059e-08</v>
+        <v>7.082157083004859e-09</v>
       </c>
       <c r="BQ6" t="n">
-        <v>4.942558007314801e-08</v>
+        <v>7.193321494014526e-09</v>
       </c>
       <c r="BR6" t="n">
-        <v>3.163336614875334e-08</v>
+        <v>9.26967125280953e-09</v>
       </c>
       <c r="BS6" t="n">
-        <v>8.987449007236137e-09</v>
+        <v>2.665107690091872e-09</v>
       </c>
       <c r="BT6" t="n">
-        <v>8.750038915650293e-09</v>
+        <v>7.183584838088564e-09</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.135884275527133e-09</v>
+        <v>8.986672739297319e-09</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.749098643699654e-08</v>
+        <v>1.799305771044146e-08</v>
       </c>
       <c r="BW6" t="n">
-        <v>9.602139527942199e-09</v>
+        <v>8.107118532052482e-09</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.076695888002632e-08</v>
+        <v>1.921306314045523e-08</v>
       </c>
       <c r="BY6" t="n">
-        <v>4.283453236553214e-08</v>
+        <v>1.13740847851318e-08</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.224756829287799e-08</v>
+        <v>1.839856156315989e-09</v>
       </c>
       <c r="CA6" t="n">
-        <v>5.759866805732372e-09</v>
+        <v>1.186656284346554e-08</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.502411528520042e-08</v>
+        <v>7.597092732680721e-09</v>
       </c>
       <c r="CC6" t="n">
-        <v>6.706243027565506e-08</v>
+        <v>1.474895938713416e-08</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.022220695925171e-08</v>
+        <v>5.797009539065812e-10</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.668805348411297e-08</v>
+        <v>9.341610152091562e-09</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.710272895001253e-08</v>
+        <v>1.150306960795433e-08</v>
       </c>
       <c r="CG6" t="n">
-        <v>6.336111191274085e-09</v>
+        <v>1.155879658654158e-08</v>
       </c>
       <c r="CH6" t="n">
-        <v>4.848708101690136e-08</v>
+        <v>5.133945712998411e-09</v>
       </c>
       <c r="CI6" t="n">
-        <v>3.945872961708119e-08</v>
+        <v>3.017175120856308e-10</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.023375067494726e-08</v>
+        <v>9.485408014597851e-09</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.746515643219482e-08</v>
+        <v>4.404383524558853e-09</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.797087101351735e-08</v>
+        <v>8.633700865345872e-09</v>
       </c>
       <c r="CM6" t="n">
-        <v>5.962595395203607e-08</v>
+        <v>1.861247156398349e-08</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.227425912020408e-07</v>
+        <v>1.079797584679909e-08</v>
       </c>
       <c r="CO6" t="n">
-        <v>1.74060810209653e-09</v>
+        <v>2.170941648671487e-09</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.377578039476248e-08</v>
+        <v>2.034833990194329e-08</v>
       </c>
       <c r="CQ6" t="n">
-        <v>5.848621142945376e-08</v>
+        <v>7.817980041124883e-09</v>
       </c>
       <c r="CR6" t="n">
-        <v>3.261969538925769e-08</v>
+        <v>4.935009734197138e-09</v>
       </c>
       <c r="CS6" t="n">
-        <v>2.232179774352971e-08</v>
+        <v>1.111892977689877e-08</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.901182322683326e-08</v>
+        <v>3.224215561203891e-08</v>
       </c>
       <c r="CU6" t="n">
-        <v>4.149251608964732e-08</v>
+        <v>9.377705723068175e-09</v>
       </c>
       <c r="CV6" t="n">
-        <v>3.073095200534226e-08</v>
+        <v>1.131490678929481e-09</v>
       </c>
       <c r="CW6" t="n">
-        <v>4.145640275510232e-08</v>
+        <v>9.1886072084435e-09</v>
       </c>
       <c r="CX6" t="n">
-        <v>3.611241439216428e-08</v>
+        <v>1.029000973318261e-08</v>
       </c>
       <c r="CY6" t="n">
-        <v>3.207342169631033e-09</v>
+        <v>1.82079791244405e-08</v>
       </c>
       <c r="CZ6" t="n">
-        <v>4.881289683567047e-08</v>
+        <v>7.286057979172256e-09</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.203246461997878e-08</v>
+        <v>2.190692766079749e-10</v>
       </c>
       <c r="DB6" t="n">
-        <v>5.886251486231231e-09</v>
+        <v>7.281562020011734e-09</v>
       </c>
       <c r="DC6" t="n">
-        <v>5.033728989189967e-09</v>
+        <v>5.951850123864233e-09</v>
       </c>
       <c r="DD6" t="n">
-        <v>3.555668826038527e-08</v>
+        <v>6.045341560678708e-09</v>
       </c>
       <c r="DE6" t="n">
-        <v>5.454236884361308e-08</v>
+        <v>1.489770706797344e-08</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.383762082696194e-07</v>
+        <v>6.10747230567199e-09</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.29404213566886e-07</v>
+        <v>1.839761454291988e-09</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.397571303130007e-08</v>
+        <v>6.515026029774162e-08</v>
       </c>
       <c r="DI6" t="n">
-        <v>4.111743834300796e-08</v>
+        <v>3.981282148401988e-08</v>
       </c>
       <c r="DJ6" t="n">
-        <v>7.166661930568807e-09</v>
+        <v>5.094277000239344e-09</v>
       </c>
       <c r="DK6" t="n">
-        <v>3.741213561170298e-08</v>
+        <v>2.454792102923875e-08</v>
       </c>
       <c r="DL6" t="n">
-        <v>7.359223452851893e-09</v>
+        <v>3.211643218037352e-08</v>
       </c>
       <c r="DM6" t="n">
-        <v>9.882310969544505e-09</v>
+        <v>4.166506695213457e-09</v>
       </c>
       <c r="DN6" t="n">
-        <v>1.146901862369987e-08</v>
+        <v>1.496844426185362e-09</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.440146668585385e-08</v>
+        <v>7.004810509414483e-09</v>
       </c>
       <c r="DP6" t="n">
-        <v>2.21229683461388e-08</v>
+        <v>1.295954454860748e-08</v>
       </c>
       <c r="DQ6" t="n">
-        <v>3.211630783539476e-08</v>
+        <v>9.856545801767425e-09</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.211680616426293e-08</v>
+        <v>1.266288851553554e-08</v>
       </c>
       <c r="DS6" t="n">
-        <v>2.301409907090601e-08</v>
+        <v>9.492366892516202e-09</v>
       </c>
       <c r="DT6" t="n">
-        <v>1.392394111121575e-08</v>
+        <v>4.921309582073263e-09</v>
       </c>
       <c r="DU6" t="n">
-        <v>6.471157121268334e-08</v>
+        <v>1.317167486192261e-10</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.14881224533292e-08</v>
+        <v>9.694065994381162e-09</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.496155732638726e-08</v>
+        <v>2.031081969278148e-09</v>
       </c>
       <c r="DX6" t="n">
-        <v>3.767618039773879e-08</v>
+        <v>1.34058861789299e-08</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.982021302637804e-08</v>
+        <v>1.154959061722138e-08</v>
       </c>
       <c r="DZ6" t="n">
-        <v>7.978298022237595e-10</v>
+        <v>6.161351429057049e-09</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.141123000067637e-08</v>
+        <v>2.75865605914305e-08</v>
       </c>
       <c r="EB6" t="n">
-        <v>2.19531557377195e-08</v>
+        <v>5.671711544863456e-09</v>
       </c>
       <c r="EC6" t="n">
-        <v>5.032557037765173e-09</v>
+        <v>1.87350535085784e-09</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.863014358922555e-08</v>
+        <v>1.027224172389651e-08</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.874714250504894e-08</v>
+        <v>7.887374309234474e-09</v>
       </c>
       <c r="EF6" t="n">
-        <v>5.079424880705119e-08</v>
+        <v>2.907915241934234e-09</v>
       </c>
       <c r="EG6" t="n">
-        <v>4.339431924904602e-08</v>
+        <v>6.589939260948086e-09</v>
       </c>
       <c r="EH6" t="n">
-        <v>3.505989099039653e-08</v>
+        <v>1.127109960918915e-08</v>
       </c>
       <c r="EI6" t="n">
-        <v>7.576490546057357e-09</v>
+        <v>1.547660843925769e-08</v>
       </c>
       <c r="EJ6" t="n">
-        <v>3.238432810803715e-08</v>
+        <v>9.831644831592712e-09</v>
       </c>
       <c r="EK6" t="n">
-        <v>9.338897655197798e-08</v>
+        <v>1.195238241713525e-09</v>
       </c>
       <c r="EL6" t="n">
-        <v>1.497425827778898e-08</v>
+        <v>1.378825231768133e-08</v>
       </c>
       <c r="EM6" t="n">
-        <v>3.453876740167061e-09</v>
+        <v>5.733744146141362e-09</v>
       </c>
       <c r="EN6" t="n">
-        <v>2.364018492073683e-08</v>
+        <v>4.304271605803933e-09</v>
       </c>
       <c r="EO6" t="n">
-        <v>5.68262770173078e-10</v>
+        <v>1.569887553287685e-09</v>
       </c>
       <c r="EP6" t="n">
-        <v>1.250392855922655e-08</v>
+        <v>2.429879408794022e-09</v>
       </c>
       <c r="EQ6" t="n">
-        <v>3.392431935367313e-08</v>
+        <v>8.893137781740279e-09</v>
       </c>
       <c r="ER6" t="n">
-        <v>1.89381292869939e-08</v>
+        <v>7.735726725854875e-09</v>
       </c>
       <c r="ES6" t="n">
-        <v>1.304005614599646e-08</v>
+        <v>3.842746920668105e-08</v>
       </c>
       <c r="ET6" t="n">
-        <v>7.072495122883993e-08</v>
+        <v>6.438521715779189e-09</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.841576846572934e-08</v>
+        <v>7.721804529126075e-09</v>
       </c>
       <c r="EV6" t="n">
-        <v>8.882759416906083e-09</v>
+        <v>1.105979841042881e-08</v>
       </c>
       <c r="EW6" t="n">
-        <v>2.475398774848259e-09</v>
+        <v>2.411434385507505e-09</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.766715650499464e-08</v>
+        <v>2.756989969654455e-09</v>
       </c>
       <c r="EY6" t="n">
-        <v>4.075387494140159e-08</v>
+        <v>9.463458461311802e-09</v>
       </c>
       <c r="EZ6" t="n">
-        <v>3.25099591691469e-08</v>
+        <v>1.137654326299753e-08</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.229821400272613e-08</v>
+        <v>1.690347950500382e-08</v>
       </c>
       <c r="FB6" t="n">
-        <v>2.889001748940245e-08</v>
+        <v>4.030286770984048e-09</v>
       </c>
       <c r="FC6" t="n">
-        <v>3.442782769980113e-08</v>
+        <v>8.984407107170966e-10</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.601208055035386e-08</v>
+        <v>9.119966115633815e-09</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.248341246513519e-08</v>
+        <v>6.06449690465638e-09</v>
       </c>
       <c r="FF6" t="n">
-        <v>3.609926935155272e-08</v>
+        <v>1.008190331219794e-08</v>
       </c>
       <c r="FG6" t="n">
-        <v>3.726378849933099e-08</v>
+        <v>2.847690305785022e-09</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.601143928553483e-08</v>
+        <v>5.705762973207129e-09</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.220717926742054e-08</v>
+        <v>1.407185123980526e-08</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.148789673446117e-08</v>
+        <v>3.102013579336926e-08</v>
       </c>
       <c r="FK6" t="n">
-        <v>2.761611739288128e-08</v>
+        <v>3.642760315614169e-09</v>
       </c>
       <c r="FL6" t="n">
-        <v>4.947569820501485e-08</v>
+        <v>2.350430294839612e-09</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.553630113448889e-08</v>
+        <v>1.562714402325582e-08</v>
       </c>
       <c r="FN6" t="n">
-        <v>3.179957985821602e-08</v>
+        <v>2.993397751893667e-09</v>
       </c>
       <c r="FO6" t="n">
-        <v>9.838516668025932e-09</v>
+        <v>1.062798560269584e-08</v>
       </c>
       <c r="FP6" t="n">
-        <v>6.654756301571751e-09</v>
+        <v>1.423212303564014e-08</v>
       </c>
       <c r="FQ6" t="n">
-        <v>4.267573316951712e-08</v>
+        <v>3.869365383657453e-10</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.039284214243708e-08</v>
+        <v>7.273794455642246e-09</v>
       </c>
       <c r="FS6" t="n">
-        <v>3.251626878864045e-08</v>
+        <v>3.643880086556806e-09</v>
       </c>
       <c r="FT6" t="n">
-        <v>3.511020096880202e-08</v>
+        <v>2.256900621944169e-08</v>
       </c>
       <c r="FU6" t="n">
-        <v>2.962630674119282e-08</v>
+        <v>3.121999547772702e-09</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.584095248892027e-08</v>
+        <v>6.227109938805597e-09</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.869135329319761e-08</v>
+        <v>9.707447290452365e-09</v>
       </c>
       <c r="FX6" t="n">
-        <v>3.417217087076097e-08</v>
+        <v>8.467862855354724e-09</v>
       </c>
       <c r="FY6" t="n">
-        <v>4.755821070290267e-09</v>
+        <v>1.491718748525273e-08</v>
       </c>
       <c r="FZ6" t="n">
-        <v>3.171667017909385e-08</v>
+        <v>3.406364967872832e-09</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.882925992902074e-08</v>
+        <v>7.273037727628662e-10</v>
       </c>
       <c r="GB6" t="n">
-        <v>6.929703033620171e-09</v>
+        <v>3.781955193460362e-09</v>
       </c>
       <c r="GC6" t="n">
-        <v>9.314767623891385e-09</v>
+        <v>9.785459553768305e-09</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.186696785282493e-08</v>
+        <v>3.714955898459493e-09</v>
       </c>
       <c r="GE6" t="n">
-        <v>1.424822482221089e-08</v>
+        <v>4.240694906343379e-08</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.95817029258194e-09</v>
+        <v>6.287341758337561e-09</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.008454025315132e-08</v>
+        <v>5.146586712356793e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.007558189332485199</v>
+        <v>0.001486206543631852</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01660661399364471</v>
+        <v>0.006807019002735615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005368846002966166</v>
+        <v>0.0002512932696845382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01741394959390163</v>
+        <v>0.003299443749710917</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009275780059397221</v>
+        <v>0.0002598739229142666</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005760795436799526</v>
+        <v>0.004174555186182261</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004493242129683495</v>
+        <v>0.0004290640936233103</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007149738376028836</v>
+        <v>0.0002386514679528773</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02428296953439713</v>
+        <v>0.0001663442817516625</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004723753314465284</v>
+        <v>0.001777530880644917</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01349794678390026</v>
+        <v>0.004243178758770227</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009863755665719509</v>
+        <v>0.0007089645368978381</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01559943798929453</v>
+        <v>0.00432716216892004</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0127952191978693</v>
+        <v>0.001847339444793761</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01125477254390717</v>
+        <v>0.005300820805132389</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002196970395743847</v>
+        <v>0.0009573474526405334</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.00476009352132678</v>
+        <v>0.001301054609939456</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02761749364435673</v>
+        <v>0.0002069722395390272</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00416618725284934</v>
+        <v>0.0004604569985531271</v>
       </c>
       <c r="T7" t="n">
-        <v>0.003260438563302159</v>
+        <v>0.00141101295594126</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001757336314767599</v>
+        <v>0.0002132708759745583</v>
       </c>
       <c r="V7" t="n">
-        <v>0.006868563592433929</v>
+        <v>0.0006925164489075541</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01445315964519978</v>
+        <v>0.000555757840629667</v>
       </c>
       <c r="X7" t="n">
-        <v>0.006136574316769838</v>
+        <v>0.00019493953732308</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004171732813119888</v>
+        <v>0.0005883801495656371</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.00280809635296464</v>
+        <v>4.937269841320813e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.004421182442456484</v>
+        <v>0.000430832093115896</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.002929006703197956</v>
+        <v>0.0002611594391055405</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.005062706302851439</v>
+        <v>0.001397303771227598</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003045682329684496</v>
+        <v>0.0001262026344193146</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001391142839565873</v>
+        <v>0.001006776466965675</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.005548100918531418</v>
+        <v>0.0004305829352233559</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.004962917882949114</v>
+        <v>0.0001763437467161566</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0009782344568520784</v>
+        <v>0.001079385634511709</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.004243575967848301</v>
+        <v>0.0002167597704101354</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.007503577042371035</v>
+        <v>0.0002012031472986564</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.005561983212828636</v>
+        <v>0.0008641184540465474</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.005454594269394875</v>
+        <v>0.0008798527996987104</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.00191563880071044</v>
+        <v>6.410875357687473e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.001224021892994642</v>
+        <v>0.0001676543906796724</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0002579658757895231</v>
+        <v>0.0002108685148414224</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.008014658465981483</v>
+        <v>0.00124497280921787</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.002447274513542652</v>
+        <v>0.0007808590889908373</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002964973216876388</v>
+        <v>0.0002501400304026902</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.001668617594987154</v>
+        <v>0.0007308569038286805</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.001628888538107276</v>
+        <v>0.001535324612632394</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.005369132850319147</v>
+        <v>0.00634440965950489</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.004989174194633961</v>
+        <v>0.0003506412031129003</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.008215428330004215</v>
+        <v>0.0005873377085663378</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001103790593333542</v>
+        <v>0.002039849292486906</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.008528036996722221</v>
+        <v>0.001674337196163833</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.00528563279658556</v>
+        <v>0.0003751165349967778</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.002669248729944229</v>
+        <v>0.001535506569780409</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.006034607067704201</v>
+        <v>0.0008918148232623935</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.001212420640513301</v>
+        <v>0.001129436073824763</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.007776338141411543</v>
+        <v>0.0007006471860222518</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001741234445944428</v>
+        <v>0.001646883436478674</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001879786374047399</v>
+        <v>0.001298539573326707</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.002756154630333185</v>
+        <v>0.002668994013220072</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.001252837479114532</v>
+        <v>0.002067905850708485</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0006383100990206003</v>
+        <v>0.0004367750661913306</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.003342711832374334</v>
+        <v>0.001966805895790458</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.007525427266955376</v>
+        <v>0.0001161164400400594</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001057065557688475</v>
+        <v>0.000218068526010029</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0008576145628467202</v>
+        <v>0.001853838213719428</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.005841349251568317</v>
+        <v>0.0004969349829480052</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.003995305858552456</v>
+        <v>0.002724048681557178</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0007385942153632641</v>
+        <v>0.002013929421082139</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.001108950818888843</v>
+        <v>0.0001856461021816358</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0008082538843154907</v>
+        <v>0.001147095812484622</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.00393470237031579</v>
+        <v>0.000813815335277468</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.004705618601292372</v>
+        <v>7.486049435101449e-05</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.00625082291662693</v>
+        <v>0.0006726866122335196</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.003365621203556657</v>
+        <v>0.002578734187409282</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.002590246964246035</v>
+        <v>0.0002683346101548523</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.005790364928543568</v>
+        <v>8.124842133838683e-05</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.00517262751236558</v>
+        <v>0.0003565559745766222</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0006699921796098351</v>
+        <v>0.0003159016487188637</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.001521236961707473</v>
+        <v>0.001031353953294456</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.001143222209066153</v>
+        <v>0.0009362638229504228</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.01381074171513319</v>
+        <v>0.0005874565104022622</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.004121204372495413</v>
+        <v>0.0002944862062577158</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.005732258316129446</v>
+        <v>0.001377713633701205</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0005529206828214228</v>
+        <v>0.0006947301444597542</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.003378449007868767</v>
+        <v>0.0008735416340641677</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002305329544469714</v>
+        <v>0.0004519018693827093</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0008246261859312654</v>
+        <v>0.0006747083971276879</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0007950507570058107</v>
+        <v>0.0003125695511698723</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0003211639123037457</v>
+        <v>6.590811972273514e-05</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.003801889484748244</v>
+        <v>0.0003595353045966476</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.001377357984893024</v>
+        <v>0.001260703429579735</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.008281088434159756</v>
+        <v>0.001268660300411284</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0004669809713959694</v>
+        <v>0.0006375177763402462</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.003185008885338902</v>
+        <v>0.0009303528349846601</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.007345340214669704</v>
+        <v>0.0005611253436654806</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.008738152682781219</v>
+        <v>0.000484598393086344</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.001487327623181045</v>
+        <v>0.0003095152787864208</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.001232478069141507</v>
+        <v>0.0001945199619513005</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.000794175430200994</v>
+        <v>3.97203111788258e-05</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.004994842689484358</v>
+        <v>0.0001566081191413105</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.007396913133561611</v>
+        <v>0.0009605704690329731</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0006416178657673299</v>
+        <v>0.0007322282181121409</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.003500891383737326</v>
+        <v>0.001256527495570481</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.003939065150916576</v>
+        <v>0.0002341285144211724</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001906021847389638</v>
+        <v>0.0007267237524501979</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.0004239961563143879</v>
+        <v>0.0004242720897309482</v>
       </c>
       <c r="DC7" t="n">
-        <v>3.144184302072972e-05</v>
+        <v>0.0003687622374854982</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.004366083070635796</v>
+        <v>0.0002518376568332314</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.008525766432285309</v>
+        <v>0.001216539647430182</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.01431330386549234</v>
+        <v>0.002867399016395211</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01234365068376064</v>
+        <v>7.630696200067177e-05</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.007017211057245731</v>
+        <v>0.001321608549915254</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.00131405470892787</v>
+        <v>0.0004593129269778728</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.005272543057799339</v>
+        <v>8.421570237260312e-05</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.003372006351128221</v>
+        <v>0.001881011528894305</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0002735957968980074</v>
+        <v>0.0008308360120281577</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.001064280164428055</v>
+        <v>0.0003063533222302794</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001728404778987169</v>
+        <v>0.001199662219733</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001415597042068839</v>
+        <v>0.0009078161092475057</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0008479228126816452</v>
+        <v>0.0008218484581448138</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.00441116513684392</v>
+        <v>0.0013337975833565</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.005408723372966051</v>
+        <v>0.0003271194873377681</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.003187036607414484</v>
+        <v>0.0006991417612880468</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.002458799630403519</v>
+        <v>4.245087620802224e-05</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.006030640099197626</v>
+        <v>0.000282284920103848</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001414087135344744</v>
+        <v>0.0007586220162920654</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0009818793041631579</v>
+        <v>0.000219780340557918</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.000522640417329967</v>
+        <v>0.0002560645225457847</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.003603567369282246</v>
+        <v>0.001532336696982384</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.004259297624230385</v>
+        <v>0.0003536267904564738</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.00204798742197454</v>
+        <v>0.0005327914841473103</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.004355705343186855</v>
+        <v>0.0002885856374632567</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0002294693258590996</v>
+        <v>0.0004334144468884915</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.002863387577235699</v>
+        <v>0.0002563072193879634</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.006266570650041103</v>
+        <v>6.512268009828404e-05</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.004281023982912302</v>
+        <v>0.0004864013753831387</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.005771894007921219</v>
+        <v>0.0002018053928622976</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.0001907570258481428</v>
+        <v>0.0001234784722328186</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.001953915460035205</v>
+        <v>0.0006295585772022605</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.002007735427469015</v>
+        <v>0.0001248709304491058</v>
       </c>
       <c r="EK7" t="n">
-        <v>7.619839743711054e-05</v>
+        <v>0.0004522643575910479</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.000829547643661499</v>
+        <v>0.0007641494157724082</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.004259765148162842</v>
+        <v>0.0002748067199718207</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.004770977888256311</v>
+        <v>5.543325823964551e-05</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.003364903619512916</v>
+        <v>0.001041163457557559</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.006343708373606205</v>
+        <v>0.0004199910908937454</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.01041164714843035</v>
+        <v>0.0003366875753272325</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0007313021924346685</v>
+        <v>0.0007409265381284058</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.005581406876444817</v>
+        <v>0.0004729856445919722</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.004611430689692497</v>
+        <v>0.00174214260187</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001578886527568102</v>
+        <v>0.0003841374709736556</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.003513009287416935</v>
+        <v>0.0008063084678724408</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.001189509057439864</v>
+        <v>7.342823664657772e-06</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.003704771399497986</v>
+        <v>0.0002624844200909138</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.006935082841664553</v>
+        <v>0.0008736063027754426</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001016676891595125</v>
+        <v>0.0004502944648265839</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.001793094212189317</v>
+        <v>0.0008884831331670284</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.003870509564876556</v>
+        <v>0.0003377297834958881</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0004235193482600152</v>
+        <v>0.0007163019618019462</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0004648535395972431</v>
+        <v>0.0005207597278058529</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0002506438759155571</v>
+        <v>1.754664845066145e-05</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.005155406892299652</v>
+        <v>0.0004335657577030361</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.001627835212275386</v>
+        <v>0.0007240570848807693</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.005879675038158894</v>
+        <v>0.001006703008897603</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.004533862695097923</v>
+        <v>0.0007790733361616731</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.001443068264052272</v>
+        <v>7.099981303326786e-05</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.003313167952001095</v>
+        <v>0.0001335612614639103</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.00299972272478044</v>
+        <v>0.0001100831068470143</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0008171398658305407</v>
+        <v>6.191762804519385e-05</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.006730218883603811</v>
+        <v>0.0001263676676899195</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001617766567505896</v>
+        <v>0.000204540861886926</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.001184088294394314</v>
+        <v>0.0008271257393062115</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.003118138294667006</v>
+        <v>0.00050924759125337</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0005009729065932333</v>
+        <v>6.275425403146073e-05</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001762124244123697</v>
+        <v>0.000828842050395906</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0005043073324486613</v>
+        <v>0.003315428737550974</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.001175511046312749</v>
+        <v>0.0007829103269614279</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0008555613458156586</v>
+        <v>0.0002227310906164348</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.001265040948055685</v>
+        <v>0.0009022242156788707</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.007704218383878469</v>
+        <v>0.0001623961288714781</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.004129122011363506</v>
+        <v>0.0006421832949854434</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.00201401999220252</v>
+        <v>0.001575912465341389</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0024828827008605</v>
+        <v>0.0005455674836412072</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.004601608030498028</v>
+        <v>0.001409750548191369</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0003956769651267678</v>
+        <v>0.0002175473346142098</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0004719166317954659</v>
+        <v>0.0007559068617410958</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0009277964709326625</v>
+        <v>0.002105932682752609</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.001990452874451876</v>
+        <v>0.001548439380712807</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.00345625588670373</v>
+        <v>0.0004666115564759821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001010655425488949</v>
+        <v>0.01698906719684601</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01026453264057636</v>
+        <v>0.01356478314846754</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008456053212285042</v>
+        <v>0.0270003080368042</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01180421747267246</v>
+        <v>0.03953869640827179</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007374629378318787</v>
+        <v>0.00115719367749989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03535239025950432</v>
+        <v>0.004733632784336805</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005822521168738604</v>
+        <v>0.0006126309745013714</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0298432819545269</v>
+        <v>0.01134235691279173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01402743719518185</v>
+        <v>0.006805885583162308</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002115000505000353</v>
+        <v>0.02183341048657894</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002627375302836299</v>
+        <v>0.01051208563148975</v>
       </c>
       <c r="L8" t="n">
-        <v>0.006937056314200163</v>
+        <v>0.02271414175629616</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01564540155231953</v>
+        <v>0.03426921740174294</v>
       </c>
       <c r="N8" t="n">
-        <v>0.005313390865921974</v>
+        <v>0.01392492651939392</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02983216196298599</v>
+        <v>0.00221268436871469</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002653025556355715</v>
+        <v>0.006741880904883146</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0311720035970211</v>
+        <v>0.01497939229011536</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01695497520267963</v>
+        <v>0.004127758089452982</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005743319168686867</v>
+        <v>0.009752728976309299</v>
       </c>
       <c r="T8" t="n">
-        <v>0.003252218943089247</v>
+        <v>0.0008510809857398272</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001948512741364539</v>
+        <v>0.001461000530980527</v>
       </c>
       <c r="V8" t="n">
-        <v>0.003466380760073662</v>
+        <v>0.001897440408356488</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005600359290838242</v>
+        <v>0.005078647751361132</v>
       </c>
       <c r="X8" t="n">
-        <v>0.005153185687959194</v>
+        <v>0.002296457998454571</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0007479430641978979</v>
+        <v>0.003313455265015364</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00079491944052279</v>
+        <v>0.01190954260528088</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.002319709397852421</v>
+        <v>0.002178217750042677</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.001263138023205101</v>
+        <v>0.001464045606553555</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002105103339999914</v>
+        <v>0.007280017249286175</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0002982989535667002</v>
+        <v>0.002876053564250469</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.009129500016570091</v>
+        <v>0.006511250510811806</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.005354559049010277</v>
+        <v>0.004072072915732861</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.001078260131180286</v>
+        <v>0.0004628608585335314</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.007469119038432837</v>
+        <v>0.0001904226373881102</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.004109928384423256</v>
+        <v>0.003480235813185573</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.002596883568912745</v>
+        <v>8.57451232150197e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.001622366835363209</v>
+        <v>0.002080516889691353</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.006326903123408556</v>
+        <v>0.007855117321014404</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.007861852645874023</v>
+        <v>0.003583422861993313</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0008526106830686331</v>
+        <v>0.003941907547414303</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0128512866795063</v>
+        <v>0.002420928794890642</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.003210843307897449</v>
+        <v>0.00362112233415246</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0008118007099255919</v>
+        <v>0.007089733146131039</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0002054154901998118</v>
+        <v>0.001056208042427897</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.000226937816478312</v>
+        <v>0.002852645702660084</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.003300010226666927</v>
+        <v>0.001522477949038148</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002760132309049368</v>
+        <v>0.002467046026140451</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.008783582597970963</v>
+        <v>0.01526761706918478</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002889436669647694</v>
+        <v>0.03063450939953327</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.005737951025366783</v>
+        <v>0.001505774795077741</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0235554575920105</v>
+        <v>0.008550367318093777</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0006069265073165298</v>
+        <v>0.001147089991718531</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.01602135598659515</v>
+        <v>0.01235655695199966</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.009183282032608986</v>
+        <v>0.007408794946968555</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.001192234922200441</v>
+        <v>0.0216121282428503</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0015151163097471</v>
+        <v>0.006885392591357231</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002750459359958768</v>
+        <v>0.00355174345895648</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.007397088222205639</v>
+        <v>0.008877137675881386</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.003203887026757002</v>
+        <v>0.01679675094783306</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.002976882271468639</v>
+        <v>9.633724403101951e-05</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.006779544986784458</v>
+        <v>0.01419471949338913</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.008335537277162075</v>
+        <v>0.02459491789340973</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.002714073285460472</v>
+        <v>0.00381875759921968</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002319652354344726</v>
+        <v>0.002392822178080678</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001302603748627007</v>
+        <v>0.004766530822962523</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.007338709197938442</v>
+        <v>0.006421625148504972</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.002586562186479568</v>
+        <v>0.007597910240292549</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.005709233693778515</v>
+        <v>0.01283689867705107</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.00878574326634407</v>
+        <v>0.002421798417344689</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001625121221877635</v>
+        <v>0.007956276647746563</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.001510362373664975</v>
+        <v>0.00352914072573185</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001304443227127194</v>
+        <v>0.006576939020305872</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.003771591233089566</v>
+        <v>0.001052474486641586</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.004021793603897095</v>
+        <v>0.004239091649651527</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.001895411987788975</v>
+        <v>0.007380093447864056</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.003611731342971325</v>
+        <v>0.0142284007743001</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0003457590937614441</v>
+        <v>0.004922912456095219</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.009248465299606323</v>
+        <v>0.001749335788190365</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.00443349638953805</v>
+        <v>0.005406148731708527</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.008047992363572121</v>
+        <v>0.01606329157948494</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.008031561970710754</v>
+        <v>0.007795773912221193</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0007638524984940886</v>
+        <v>0.003544878680258989</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.006992546375840902</v>
+        <v>0.005354229360818863</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.001841176068410277</v>
+        <v>0.006393481977283955</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.00281184259802103</v>
+        <v>0.007693835999816656</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.001471945201046765</v>
+        <v>0.005914546549320221</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.008241396397352219</v>
+        <v>0.004087897948920727</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.001539736287668347</v>
+        <v>0.002788354642689228</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.00520389573648572</v>
+        <v>0.003026415826752782</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.001466806977987289</v>
+        <v>0.006094793789088726</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002507125260308385</v>
+        <v>0.0080685680732131</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.002342369873076677</v>
+        <v>0.0005552421789616346</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.005373711697757244</v>
+        <v>0.001008338644169271</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.00498354434967041</v>
+        <v>0.007389403413981199</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.005745201371610165</v>
+        <v>0.0001069584395736456</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01086980849504471</v>
+        <v>0.008284963667392731</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0007109352154657245</v>
+        <v>0.004295686725527048</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.002668676199391484</v>
+        <v>0.007835622876882553</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.001332082436420023</v>
+        <v>0.004297815728932619</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.001190484850667417</v>
+        <v>0.003549328539520502</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.008471180684864521</v>
+        <v>0.003667464945465326</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.002412025118246675</v>
+        <v>0.003864697180688381</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.003483072388917208</v>
+        <v>0.005293595604598522</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0002449871972203255</v>
+        <v>0.006953770760446787</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.008031508885324001</v>
+        <v>0.003879642114043236</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0003685204428620636</v>
+        <v>0.001440430525690317</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.006028344389051199</v>
+        <v>0.001100313966162503</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.001968900673091412</v>
+        <v>0.00656094029545784</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.008647395297884941</v>
+        <v>0.004560726694762707</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.006079239770770073</v>
+        <v>0.02360332757234573</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.004191294778138399</v>
+        <v>0.001575520262122154</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.0006668204441666603</v>
+        <v>0.009110104292631149</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.008154467679560184</v>
+        <v>0.001349778263829648</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.01134270336478949</v>
+        <v>0.01270156446844339</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.0009356620139442384</v>
+        <v>0.02122048288583755</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.005306046456098557</v>
+        <v>0.001510646776296198</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.0001817159354686737</v>
+        <v>0.001902846386656165</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0029916618950665</v>
+        <v>0.002718122908845544</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.002738099778071046</v>
+        <v>0.004546144977211952</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.001777654862962663</v>
+        <v>0.005816465709358454</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0004378664307296276</v>
+        <v>0.0006191793363541365</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0002788391429930925</v>
+        <v>0.01061334181576967</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.008563784882426262</v>
+        <v>0.001071234000846744</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.001845677848905325</v>
+        <v>0.001139640109613538</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.00513685867190361</v>
+        <v>0.006150660570710897</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.002520815003663301</v>
+        <v>0.005972927436232567</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0007257480174303055</v>
+        <v>0.001223722589202225</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0001168068629340269</v>
+        <v>0.0003348889877088368</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.003872107248753309</v>
+        <v>0.001712667755782604</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.003630390157923102</v>
+        <v>0.006052144337445498</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0006860825233161449</v>
+        <v>0.00129022472538054</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.001540194265544415</v>
+        <v>0.007119918242096901</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.00123085523955524</v>
+        <v>0.004175812937319279</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.005604538135230541</v>
+        <v>0.008814328350126743</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.001320559531450272</v>
+        <v>0.001252903486602008</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.002301482483744621</v>
+        <v>0.004572975914925337</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.008408259600400925</v>
+        <v>0.005887603387236595</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.0008523685391992331</v>
+        <v>0.007063616998493671</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002071864204481244</v>
+        <v>0.01028730999678373</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.002961224876344204</v>
+        <v>0.001198569778352976</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.006882914341986179</v>
+        <v>0.002660041209310293</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0002617388381622732</v>
+        <v>0.001939205918461084</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.006596739869564772</v>
+        <v>0.003507736837491393</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.002980706980451941</v>
+        <v>0.009058592841029167</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0008049792377278209</v>
+        <v>0.004605358466506004</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003915328998118639</v>
+        <v>0.0002695514122024179</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.00860411673784256</v>
+        <v>0.006834009662270546</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0009820127161219716</v>
+        <v>0.002382287755608559</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.005415684543550014</v>
+        <v>0.004991975612938404</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.003640786046162248</v>
+        <v>0.001261233119294047</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.001567178871482611</v>
+        <v>0.001149650663137436</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0009742229012772441</v>
+        <v>0.0159839354455471</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.002490464597940445</v>
+        <v>0.009588412940502167</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0005363342352211475</v>
+        <v>0.002813916187733412</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.007324414793401957</v>
+        <v>0.00450535211712122</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.003323550103232265</v>
+        <v>0.005130200646817684</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.003342404961585999</v>
+        <v>0.006155728362500668</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0004328024806454778</v>
+        <v>0.00524555891752243</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.007398630958050489</v>
+        <v>0.004866661503911018</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.000432555447332561</v>
+        <v>0.0004735596012324095</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.005472457502037287</v>
+        <v>0.001499751349911094</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.001101666712202132</v>
+        <v>0.007572895847260952</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0006160222692415118</v>
+        <v>0.001231385162100196</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.00863916240632534</v>
+        <v>0.001803479506634176</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.003798486897721887</v>
+        <v>0.001026223879307508</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01006446592509747</v>
+        <v>0.006489529740065336</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.002998485695570707</v>
+        <v>0.00441609974950552</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.001141606597229838</v>
+        <v>0.001160804065875709</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0002624382032081485</v>
+        <v>0.004079974256455898</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.007822697050869465</v>
+        <v>0.002544890157878399</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.003682550042867661</v>
+        <v>0.005432458594441414</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.001673333463259041</v>
+        <v>0.01205398887395859</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.004844742827117443</v>
+        <v>0.003753493307158351</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.001223562983796</v>
+        <v>0.01987813971936703</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.004462223034352064</v>
+        <v>0.01337154395878315</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.003318270435556769</v>
+        <v>0.001609934726729989</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0204201266169548</v>
+        <v>0.008513370528817177</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00742290448397398</v>
+        <v>0.001384571194648743</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.01149849966168404</v>
+        <v>0.0009362837881781161</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.00371153187006712</v>
+        <v>0.005111416801810265</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0003233696043025702</v>
+        <v>0.003386039519682527</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.003439856460317969</v>
+        <v>0.005573143251240253</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001542040961794555</v>
+        <v>0.009225045330822468</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0001788684166967869</v>
+        <v>0.00215636333450675</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.003365794196724892</v>
+        <v>0.007380125112831593</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.001678719650954008</v>
+        <v>0.01118589006364346</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.005176685750484467</v>
+        <v>0.002180470852181315</v>
       </c>
       <c r="GF8" t="n">
-        <v>7.445341907441616e-06</v>
+        <v>0.00477986503392458</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002778491005301476</v>
+        <v>0.003868399187922478</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003233684692531824</v>
+        <v>0.0007145153358578682</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003004261292517185</v>
+        <v>0.111066035926342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001689336728304625</v>
+        <v>0.01409697160124779</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008438872173428535</v>
+        <v>0.03596542030572891</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01153792347759008</v>
+        <v>0.07257011532783508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04681787639856339</v>
+        <v>0.02990218065679073</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01131483539938927</v>
+        <v>0.003545316169038415</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04834752902388573</v>
+        <v>0.01378902513533831</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001157356426119804</v>
+        <v>0.004907175898551941</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001175912912003696</v>
+        <v>0.004308653995394707</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0006425026804208755</v>
+        <v>0.0857880562543869</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008713384158909321</v>
+        <v>0.006497784052044153</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009524727240204811</v>
+        <v>0.01948477700352669</v>
       </c>
       <c r="N10" t="n">
-        <v>0.007118626497685909</v>
+        <v>0.05797821283340454</v>
       </c>
       <c r="O10" t="n">
-        <v>0.04266517236828804</v>
+        <v>0.03425315022468567</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01507201790809631</v>
+        <v>0.003478616243228316</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05521264672279358</v>
+        <v>0.01364424731582403</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0008996282704174519</v>
+        <v>0.003955431282520294</v>
       </c>
       <c r="S10" t="n">
-        <v>0.006016564555466175</v>
+        <v>0.000132773770019412</v>
       </c>
       <c r="T10" t="n">
-        <v>0.002980093006044626</v>
+        <v>0.01706431619822979</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001864275662228465</v>
+        <v>0.001636651577427983</v>
       </c>
       <c r="V10" t="n">
-        <v>0.00412617065012455</v>
+        <v>0.01896565221250057</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0005520571721717715</v>
+        <v>0.01667069643735886</v>
       </c>
       <c r="X10" t="n">
-        <v>0.01097701117396355</v>
+        <v>0.01328211650252342</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001491685165092349</v>
+        <v>0.004220565780997276</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.002060680883005261</v>
+        <v>0.01322993449866772</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004386670421808958</v>
+        <v>0.001355894608423114</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003564611310139298</v>
+        <v>0.004186716862022877</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002342172199860215</v>
+        <v>0.01574066653847694</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.002481406088918447</v>
+        <v>0.006502728909254074</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.007417887449264526</v>
+        <v>0.002771473722532392</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.01999875530600548</v>
+        <v>0.01107215695083141</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.006998646073043346</v>
+        <v>0.003918816335499287</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.01632526889443398</v>
+        <v>0.01939511671662331</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.005871500354260206</v>
+        <v>0.00231220992282033</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.002529585734009743</v>
+        <v>0.0051009776070714</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.001811149646528065</v>
+        <v>0.01669132150709629</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001410828903317451</v>
+        <v>0.01960814744234085</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.006113314535468817</v>
+        <v>0.007771105505526066</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.006925724446773529</v>
+        <v>0.001855963841080666</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.01824179664254189</v>
+        <v>0.01355628110468388</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.001884538447484374</v>
+        <v>0.01302881632000208</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0005076961824670434</v>
+        <v>0.009681655094027519</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001120538683608174</v>
+        <v>0.003984969109296799</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0007862499915063381</v>
+        <v>0.007492547389119864</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.002465537516400218</v>
+        <v>0.01173795387148857</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.006469876039773226</v>
+        <v>0.09686923772096634</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.004000090528279543</v>
+        <v>0.00447749812155962</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.001624792814254761</v>
+        <v>0.005040726158767939</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.005267082247883081</v>
+        <v>0.02178379893302917</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.01425703801214695</v>
+        <v>0.02504735067486763</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0007340104784816504</v>
+        <v>0.01457495242357254</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01734182983636856</v>
+        <v>0.01556091476231813</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.002737939590588212</v>
+        <v>0.01202262938022614</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.006959041114896536</v>
+        <v>0.01124613173305988</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.004212373867630959</v>
+        <v>0.02813562378287315</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.000719454837962985</v>
+        <v>0.01460913009941578</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.008238436654210091</v>
+        <v>0.004111302550882101</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.003094060113653541</v>
+        <v>0.04509912431240082</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.009770125150680542</v>
+        <v>0.01655287854373455</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004535965621471405</v>
+        <v>0.007755747064948082</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01212597638368607</v>
+        <v>0.02190930582582951</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.007311610504984856</v>
+        <v>0.01314252242445946</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0006450382061302662</v>
+        <v>0.01731503009796143</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.001519403886049986</v>
+        <v>0.04189876466989517</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00284808874130249</v>
+        <v>0.01136523578315973</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.003651512088254094</v>
+        <v>0.009987780824303627</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.001715008867904544</v>
+        <v>0.02704879269003868</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.004139284137636423</v>
+        <v>0.01746845804154873</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.009996870532631874</v>
+        <v>0.01129416283220053</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.004418909549713135</v>
+        <v>0.003044801531359553</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.003096065483987331</v>
+        <v>0.002462596632540226</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.008100957609713078</v>
+        <v>0.008461708202958107</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002032578457146883</v>
+        <v>0.05575838312506676</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.003371088998392224</v>
+        <v>0.0220642052590847</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.004010369535535574</v>
+        <v>0.006813678424805403</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.01238418370485306</v>
+        <v>0.009628197178244591</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.01608339138329029</v>
+        <v>0.01072103437036276</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0004271359648555517</v>
+        <v>0.00965237058699131</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.01316805463284254</v>
+        <v>0.003510887268930674</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0006643274100497365</v>
+        <v>0.003651980776339769</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0008834865293465555</v>
+        <v>0.002737950766459107</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001944874413311481</v>
+        <v>0.01866769045591354</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.002128443215042353</v>
+        <v>0.002874454716220498</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.003838365897536278</v>
+        <v>0.009366840124130249</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0005725717637687922</v>
+        <v>0.006580800749361515</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.007934216409921646</v>
+        <v>0.006592723075300455</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0005985439056530595</v>
+        <v>0.008302910253405571</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.01034399587661028</v>
+        <v>0.003638043068349361</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.001208300935104489</v>
+        <v>0.0005791594740003347</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.008819532580673695</v>
+        <v>0.03318771719932556</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.01161242742091417</v>
+        <v>0.03248079121112823</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.003768489463254809</v>
+        <v>0.001779870712198317</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.00429067574441433</v>
+        <v>0.01080205291509628</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.001745234709233046</v>
+        <v>0.01586698926985264</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.01185993105173111</v>
+        <v>0.003511491930112243</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.003480680054053664</v>
+        <v>0.006715384777635336</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.002917149337008595</v>
+        <v>0.01010056585073471</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.007082897704094648</v>
+        <v>0.004451541695743799</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.002187281381338835</v>
+        <v>0.001993059879168868</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001484276028349996</v>
+        <v>0.01300361473113298</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001135556609369814</v>
+        <v>0.006210203282535076</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.002766604535281658</v>
+        <v>0.01482141204178333</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.002437637187540531</v>
+        <v>0.00454974640160799</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.008713582530617714</v>
+        <v>0.008224179036915302</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.001308940700255334</v>
+        <v>0.006936786696314812</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.01402316614985466</v>
+        <v>0.005893640220165253</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.001525723957456648</v>
+        <v>0.0008207736536860466</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.01875104755163193</v>
+        <v>0.008840639144182205</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.01284138672053814</v>
+        <v>0.02489189803600311</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0002269675023853779</v>
+        <v>0.00689358776435256</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.0005598287098109722</v>
+        <v>0.05796600878238678</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.01301185600459576</v>
+        <v>0.01828582212328911</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.02065056376159191</v>
+        <v>0.0006616862374357879</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.0066893445327878</v>
+        <v>0.03062485344707966</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.004375685006380081</v>
+        <v>0.001574687659740448</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0002286797389388084</v>
+        <v>0.01654247753322124</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.004265489988029003</v>
+        <v>0.01180409453809261</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.003094627521932125</v>
+        <v>0.0153455538675189</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.001063839183188975</v>
+        <v>0.007627410348504782</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.004888190887868404</v>
+        <v>0.0005441084504127502</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0008851217571645975</v>
+        <v>0.001300462987273932</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.001255115726962686</v>
+        <v>0.0126147260889411</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.003086121287196875</v>
+        <v>0.003560156328603625</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.01300779450684786</v>
+        <v>0.00377400778234005</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.006381210405379534</v>
+        <v>0.004239615984261036</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.003545051440596581</v>
+        <v>0.005682844668626785</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.004321211948990822</v>
+        <v>0.007664564996957779</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.003778359387069941</v>
+        <v>0.0007029332919046283</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.004060908686369658</v>
+        <v>0.00796432513743639</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.001632906496524811</v>
+        <v>0.007070688996464014</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001416517421603203</v>
+        <v>0.009112781845033169</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.002707813400775194</v>
+        <v>0.005036673508584499</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.000458395283203572</v>
+        <v>0.006879143882542849</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.007577545009553432</v>
+        <v>0.004178850911557674</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.00193352997303009</v>
+        <v>0.005860789678990841</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.006256602704524994</v>
+        <v>0.01038152817636728</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001231019152328372</v>
+        <v>0.001587348757311702</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.002354390453547239</v>
+        <v>0.005353610962629318</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.003793302457779646</v>
+        <v>0.01074772235006094</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.009548762813210487</v>
+        <v>0.0006758629460819066</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0007282833685167134</v>
+        <v>0.009447522461414337</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.01018908992409706</v>
+        <v>0.001448404043912888</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.00156414310913533</v>
+        <v>0.0008739473996683955</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.003386934287846088</v>
+        <v>0.01533794403076172</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.00772709958255291</v>
+        <v>0.006612460594624281</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.001353365369141102</v>
+        <v>0.016566077247262</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.00139156193472445</v>
+        <v>0.01707004196941853</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.00858782883733511</v>
+        <v>0.004943756386637688</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.008364982903003693</v>
+        <v>0.01750470511615276</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.002568180672824383</v>
+        <v>0.004857252817600965</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.008166654035449028</v>
+        <v>0.01586753502488136</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.001430372707545757</v>
+        <v>0.005331079475581646</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.002139344811439514</v>
+        <v>0.001520745339803398</v>
       </c>
       <c r="EY10" t="n">
-        <v>3.486673813313246e-05</v>
+        <v>0.009627314284443855</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0008019264787435532</v>
+        <v>0.003051149658858776</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.005144063383340836</v>
+        <v>0.01004036143422127</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.0003046018537133932</v>
+        <v>0.005420113913714886</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.00778141338378191</v>
+        <v>0.009295642375946045</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0006889881333336234</v>
+        <v>0.01036499254405499</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.01298834104090929</v>
+        <v>0.004140066914260387</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.001302155666053295</v>
+        <v>0.002866815077140927</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.00733026210218668</v>
+        <v>0.004556944128125906</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0006048046052455902</v>
+        <v>0.01542029157280922</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.001430039061233401</v>
+        <v>0.008228030055761337</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.002910434501245618</v>
+        <v>0.008222132921218872</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.00890912301838398</v>
+        <v>0.005356168374419212</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.002590589225292206</v>
+        <v>0.005900595337152481</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.005147146992385387</v>
+        <v>0.008335321210324764</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.003055427689105272</v>
+        <v>0.004210355691611767</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.002961560385301709</v>
+        <v>0.002470988780260086</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.002958943136036396</v>
+        <v>0.02140801958739758</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0007632847991771996</v>
+        <v>0.006678221747279167</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.003529993118718266</v>
+        <v>0.004951855633407831</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.007889959029853344</v>
+        <v>0.02018103376030922</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.002746300306171179</v>
+        <v>0.003346230369061232</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.01034446153789759</v>
+        <v>0.007410686463117599</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.005868669599294662</v>
+        <v>0.004729448352009058</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.01086114253848791</v>
+        <v>0.0009545005159452558</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0005389945581555367</v>
+        <v>0.008876550011336803</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0004964950494468212</v>
+        <v>0.01257031131535769</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.003969135694205761</v>
+        <v>0.01676477864384651</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.01053101103752851</v>
+        <v>0.01473066583275795</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.000246912008151412</v>
+        <v>0.001586069585755467</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.007196566089987755</v>
+        <v>0.0004209660110063851</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.006360743194818497</v>
+        <v>0.01726579293608665</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001425286289304495</v>
+        <v>0.02635040134191513</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.008605070412158966</v>
+        <v>0.0114348353818059</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.002438526367768645</v>
+        <v>0.004003601148724556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.05840124934911728</v>
+        <v>0.02783453278243542</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4752568304538727</v>
+        <v>0.1192137748003006</v>
       </c>
       <c r="C11" t="n">
-        <v>0.061888188123703</v>
+        <v>0.005695431493222713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1118616461753845</v>
+        <v>0.06601305305957794</v>
       </c>
       <c r="E11" t="n">
-        <v>0.189925342798233</v>
+        <v>0.0730426013469696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3344821631908417</v>
+        <v>0.04919812083244324</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0872611477971077</v>
+        <v>0.02477268502116203</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04691249877214432</v>
+        <v>0.008034047670662403</v>
       </c>
       <c r="I11" t="n">
-        <v>0.05513903498649597</v>
+        <v>0.02261913754045963</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02719279937446117</v>
+        <v>0.01797423511743546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4476484954357147</v>
+        <v>0.09613332152366638</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0295126885175705</v>
+        <v>0.00759602477774024</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03950342163443565</v>
+        <v>0.04879481345415115</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08047013729810715</v>
+        <v>0.0653868094086647</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3213014304637909</v>
+        <v>0.04021728783845901</v>
       </c>
       <c r="P11" t="n">
-        <v>0.04065851867198944</v>
+        <v>0.01022833865135908</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.05678902566432953</v>
+        <v>0.004362352192401886</v>
       </c>
       <c r="R11" t="n">
-        <v>0.08995366096496582</v>
+        <v>0.02880760468542576</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01054785028100014</v>
+        <v>0.004444651305675507</v>
       </c>
       <c r="T11" t="n">
-        <v>0.02362323924899101</v>
+        <v>0.003003096440806985</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001492513343691826</v>
+        <v>0.01629361137747765</v>
       </c>
       <c r="V11" t="n">
-        <v>0.04217459261417389</v>
+        <v>0.03965817019343376</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08421662449836731</v>
+        <v>0.05247281119227409</v>
       </c>
       <c r="X11" t="n">
-        <v>0.007836481556296349</v>
+        <v>0.02353209257125854</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02956642210483551</v>
+        <v>0.005777088925242424</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.06645424664020538</v>
+        <v>0.017205610871315</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.04454147070646286</v>
+        <v>0.0001076840562745929</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.07584652304649353</v>
+        <v>0.0003877608105540276</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06073201447725296</v>
+        <v>0.008907945826649666</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02173920348286629</v>
+        <v>0.02266132272779942</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01214387640357018</v>
+        <v>0.02416863664984703</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002880014479160309</v>
+        <v>0.01110129244625568</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.009436366148293018</v>
+        <v>0.02591255679726601</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01626850664615631</v>
+        <v>0.002727552317082882</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.02504569664597511</v>
+        <v>0.01247036643326283</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.08275727927684784</v>
+        <v>0.03429318964481354</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0156155014410615</v>
+        <v>0.01354164350777864</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0696609765291214</v>
+        <v>0.02052941732108593</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03325491771101952</v>
+        <v>0.005102844908833504</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02147846855223179</v>
+        <v>0.0148375891149044</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.04242635890841484</v>
+        <v>0.01088802050799131</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.06222798675298691</v>
+        <v>0.0139771718531847</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01904618367552757</v>
+        <v>0.003734968602657318</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.01156800612807274</v>
+        <v>0.00540638156235218</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.01708943210542202</v>
+        <v>0.0009244869579561055</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.01081030070781708</v>
+        <v>0.01899994909763336</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.2099678218364716</v>
+        <v>0.06570525467395782</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.03365553915500641</v>
+        <v>0.008617164567112923</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.02284920401871204</v>
+        <v>0.03556192293763161</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.09267523884773254</v>
+        <v>0.06835371255874634</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1717463731765747</v>
+        <v>0.006976628676056862</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01198669336736202</v>
+        <v>0.02716078236699104</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.07261914759874344</v>
+        <v>0.01327284052968025</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.03960874676704407</v>
+        <v>0.01114996150135994</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.02660894393920898</v>
+        <v>7.3637580499053e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.1028324738144875</v>
+        <v>0.02653919532895088</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.004779313690960407</v>
+        <v>0.01445997599512339</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.07388871908187866</v>
+        <v>0.03735595196485519</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.006382765248417854</v>
+        <v>0.04165394231677055</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01176063250750303</v>
+        <v>0.0213238000869751</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.08103320747613907</v>
+        <v>0.01696013100445271</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.03749074414372444</v>
+        <v>0.007681128568947315</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.08155062049627304</v>
+        <v>0.02619536221027374</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0208578035235405</v>
+        <v>0.003147646319121122</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02981549501419067</v>
+        <v>0.005990066099911928</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.01195504330098629</v>
+        <v>0.0003475970006547868</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.005965793505311012</v>
+        <v>0.02453865110874176</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.06016122922301292</v>
+        <v>0.01067808549851179</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0971883088350296</v>
+        <v>0.01981600001454353</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.02958301827311516</v>
+        <v>0.001942015951499343</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0372406430542469</v>
+        <v>0.01603126339614391</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.008048681542277336</v>
+        <v>0.01318797096610069</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.03179135918617249</v>
+        <v>0.02759553492069244</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.1262104660272598</v>
+        <v>0.05354272574186325</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.000502812908962369</v>
+        <v>0.004593872465193272</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.002787189558148384</v>
+        <v>0.04130474850535393</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.08859914541244507</v>
+        <v>0.03429612517356873</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.1571336984634399</v>
+        <v>0.02491116710007191</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.002256181091070175</v>
+        <v>0.01134830806404352</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.007206453010439873</v>
+        <v>0.007029022090137005</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.03132049739360809</v>
+        <v>0.01060667634010315</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.01556350849568844</v>
+        <v>0.002724481979385018</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.09508317708969116</v>
+        <v>0.0136547926813364</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01467807870358229</v>
+        <v>0.004392624832689762</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.03478328138589859</v>
+        <v>0.02098209783434868</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.02742625772953033</v>
+        <v>0.007872577756643295</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.05885057151317596</v>
+        <v>0.01624118350446224</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.01057715155184269</v>
+        <v>0.002145629376173019</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.000547138974070549</v>
+        <v>0.002569205360487103</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001461146166548133</v>
+        <v>0.005398270674049854</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.006435109302401543</v>
+        <v>0.001270897570066154</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.04150532931089401</v>
+        <v>0.008148624561727047</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.03627444058656693</v>
+        <v>0.006454216782003641</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.04270555078983307</v>
+        <v>0.07333770394325256</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.06639797240495682</v>
+        <v>0.04229051992297173</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.06093761697411537</v>
+        <v>0.003046004101634026</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.004310748539865017</v>
+        <v>0.02143875136971474</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.09636758267879486</v>
+        <v>0.01442727912217379</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.1271653473377228</v>
+        <v>0.008388214744627476</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.02411439083516598</v>
+        <v>0.002104865154251456</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.08599130064249039</v>
+        <v>0.01261844113469124</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.01423787046223879</v>
+        <v>0.005995731800794601</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.04644327983260155</v>
+        <v>0.01703105866909027</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01400008052587509</v>
+        <v>0.01823738217353821</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.05221483483910561</v>
+        <v>0.01943355239927769</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.008071728050708771</v>
+        <v>0.003135349368676543</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0002051154151558876</v>
+        <v>0.0040737628005445</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.01178289577364922</v>
+        <v>0.001402541762217879</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0756327211856842</v>
+        <v>0.01081785466521978</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.04110798984766006</v>
+        <v>0.06058783456683159</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.09325989335775375</v>
+        <v>0.01287447474896908</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.05504181236028671</v>
+        <v>0.05616502091288567</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.05361835658550262</v>
+        <v>0.01289777178317308</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.06799469143152237</v>
+        <v>0.06413862109184265</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.06649879366159439</v>
+        <v>0.004060284234583378</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.02883845753967762</v>
+        <v>0.005235723685473204</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.0676509365439415</v>
+        <v>0.01688932254910469</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.03797785565257072</v>
+        <v>0.02323019690811634</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.01929768174886703</v>
+        <v>0.009750546887516975</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.02671457827091217</v>
+        <v>0.01690365374088287</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.01312386710196733</v>
+        <v>0.04451315477490425</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.01887416653335094</v>
+        <v>0.01413298211991787</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.004392152652144432</v>
+        <v>0.02633297629654408</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.02752811461687088</v>
+        <v>0.02247427217662334</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.01897724717855453</v>
+        <v>0.007805724162608385</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.001257015392184258</v>
+        <v>0.0224184226244688</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.04308450594544411</v>
+        <v>0.01285659708082676</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0243491530418396</v>
+        <v>0.009140403009951115</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.02842307463288307</v>
+        <v>0.01235316134989262</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.01248235069215298</v>
+        <v>0.01588786765933037</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.01440426334738731</v>
+        <v>0.01646394841372967</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.02060586586594582</v>
+        <v>0.006196381989866495</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.05651310831308365</v>
+        <v>0.006336959078907967</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.02524608746170998</v>
+        <v>0.01774077862501144</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.05169130861759186</v>
+        <v>0.005492310505360365</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.02125236950814724</v>
+        <v>0.002094228053465486</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.1255179643630981</v>
+        <v>0.008655315265059471</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.05760092288255692</v>
+        <v>0.01214464660733938</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.0386759340763092</v>
+        <v>0.007553096394985914</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.06737750023603439</v>
+        <v>0.001086450647562742</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.07034219056367874</v>
+        <v>0.03851592168211937</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.01251969765871763</v>
+        <v>0.007767174858599901</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.005361669696867466</v>
+        <v>0.01296812947839499</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.04014044627547264</v>
+        <v>0.005540556274354458</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.001706726849079132</v>
+        <v>0.001947275828570127</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.04085000976920128</v>
+        <v>0.001028515631332994</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.01206845976412296</v>
+        <v>0.014313580468297</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.02375184930860996</v>
+        <v>0.01786388084292412</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.00846161600202322</v>
+        <v>0.01887581497430801</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.03151281177997589</v>
+        <v>0.07178831100463867</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.02556319534778595</v>
+        <v>0.002419684082269669</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.02887415699660778</v>
+        <v>0.01675079576671124</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.03470088914036751</v>
+        <v>0.009282918646931648</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0263667106628418</v>
+        <v>0.004844731651246548</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.08760720491409302</v>
+        <v>0.0128523102030158</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.006361842155456543</v>
+        <v>0.004998151678591967</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.04224485903978348</v>
+        <v>0.02529247477650642</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0228407084941864</v>
+        <v>0.007069187238812447</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.05614233389496803</v>
+        <v>0.01767046935856342</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.006860940251499414</v>
+        <v>0.002081917598843575</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.01418067514896393</v>
+        <v>0.0004105121188331395</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.002905749715864658</v>
+        <v>0.001863888232037425</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.01434358768165112</v>
+        <v>4.332652315497398e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.05663014203310013</v>
+        <v>0.02103676460683346</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.04974595084786415</v>
+        <v>0.02154337614774704</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.05842630192637444</v>
+        <v>0.01037480309605598</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.02792522311210632</v>
+        <v>0.01703251898288727</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.02254847437143326</v>
+        <v>0.01748435758054256</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.01469998341053724</v>
+        <v>0.02079662494361401</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0290269386023283</v>
+        <v>0.01051568612456322</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.03209084644913673</v>
+        <v>0.0261013749986887</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.02303726971149445</v>
+        <v>0.009565208107233047</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.05514783039689064</v>
+        <v>0.04351428151130676</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.05696972459554672</v>
+        <v>0.05531556159257889</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.04829056560993195</v>
+        <v>0.03193973749876022</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.03892340138554573</v>
+        <v>0.01353743858635426</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.1194467321038246</v>
+        <v>0.01453487575054169</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0160699300467968</v>
+        <v>0.01322725042700768</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.02255046740174294</v>
+        <v>0.002364386338740587</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.04025725275278091</v>
+        <v>0.005110815167427063</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.04373925551772118</v>
+        <v>0.01192257925868034</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.007698327768594027</v>
+        <v>0.01198102813214064</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.01480121538043022</v>
+        <v>0.009289338253438473</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03620781004428864</v>
+        <v>0.01854562759399414</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002684332430362701</v>
+        <v>0.06636940687894821</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.02918174117803574</v>
+        <v>0.005525731015950441</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.03514019027352333</v>
+        <v>0.04007720202207565</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.05806629732251167</v>
+        <v>0.006818369496613741</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.00138878938741982</v>
+        <v>0.005917210131883621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.787495643337024e-06</v>
+        <v>0.09666554629802704</v>
       </c>
       <c r="B12" t="n">
-        <v>3.40465376211796e-05</v>
+        <v>0.5666561722755432</v>
       </c>
       <c r="C12" t="n">
-        <v>8.32369096315233e-07</v>
+        <v>0.01403002440929413</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166849637636915e-05</v>
+        <v>0.7192530632019043</v>
       </c>
       <c r="E12" t="n">
-        <v>1.42297303682426e-05</v>
+        <v>0.144292801618576</v>
       </c>
       <c r="F12" t="n">
-        <v>1.045094677465386e-08</v>
+        <v>0.2614668011665344</v>
       </c>
       <c r="G12" t="n">
-        <v>1.247990439878777e-06</v>
+        <v>0.1882411986589432</v>
       </c>
       <c r="H12" t="n">
-        <v>3.019024916284252e-06</v>
+        <v>0.08672395348548889</v>
       </c>
       <c r="I12" t="n">
-        <v>2.150441105186474e-07</v>
+        <v>0.3275998830795288</v>
       </c>
       <c r="J12" t="n">
-        <v>8.838024996293825e-07</v>
+        <v>0.1842546761035919</v>
       </c>
       <c r="K12" t="n">
-        <v>3.105795258306898e-05</v>
+        <v>0.3737974166870117</v>
       </c>
       <c r="L12" t="n">
-        <v>3.164034069413901e-06</v>
+        <v>0.01062591746449471</v>
       </c>
       <c r="M12" t="n">
-        <v>2.720955308177508e-05</v>
+        <v>0.5567432641983032</v>
       </c>
       <c r="N12" t="n">
-        <v>7.015969458734617e-06</v>
+        <v>0.2452139258384705</v>
       </c>
       <c r="O12" t="n">
-        <v>3.259769528085599e-06</v>
+        <v>0.4004139006137848</v>
       </c>
       <c r="P12" t="n">
-        <v>1.566113496664912e-06</v>
+        <v>0.126029446721077</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.240021098667057e-06</v>
+        <v>0.01701698265969753</v>
       </c>
       <c r="R12" t="n">
-        <v>3.018386451003607e-06</v>
+        <v>0.3092542886734009</v>
       </c>
       <c r="S12" t="n">
-        <v>2.55336476584489e-06</v>
+        <v>0.05940369144082069</v>
       </c>
       <c r="T12" t="n">
-        <v>3.738699433597503e-06</v>
+        <v>0.09672194719314575</v>
       </c>
       <c r="U12" t="n">
-        <v>9.380698884342564e-07</v>
+        <v>0.1163911074399948</v>
       </c>
       <c r="V12" t="n">
-        <v>4.066096607857617e-06</v>
+        <v>0.2043928802013397</v>
       </c>
       <c r="W12" t="n">
-        <v>1.549643820908386e-05</v>
+        <v>0.1888443827629089</v>
       </c>
       <c r="X12" t="n">
-        <v>1.169602796835534e-06</v>
+        <v>0.03000873327255249</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.474299203138798e-06</v>
+        <v>0.104473665356636</v>
       </c>
       <c r="Z12" t="n">
-        <v>6.289167231443571e-08</v>
+        <v>0.1950971484184265</v>
       </c>
       <c r="AA12" t="n">
-        <v>8.178267876246537e-07</v>
+        <v>0.1680533140897751</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.980023954383796e-07</v>
+        <v>0.07264885306358337</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.199599066443625e-06</v>
+        <v>0.08875422924757004</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.230253918853123e-08</v>
+        <v>0.07604563236236572</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.097146741813049e-05</v>
+        <v>0.0012241555377841</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.712540200875083e-07</v>
+        <v>0.05008397623896599</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.044685738335829e-06</v>
+        <v>0.06785106658935547</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.745293957355898e-06</v>
+        <v>0.1158752292394638</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.689750418649055e-07</v>
+        <v>0.03468780964612961</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1.765608999448887e-06</v>
+        <v>0.1595355868339539</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.894881617976353e-06</v>
+        <v>0.0615256242454052</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.796043296868447e-06</v>
+        <v>0.2257899045944214</v>
       </c>
       <c r="AM12" t="n">
-        <v>3.619044264269178e-06</v>
+        <v>0.01023678481578827</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.921929197123973e-06</v>
+        <v>0.001827765256166458</v>
       </c>
       <c r="AO12" t="n">
-        <v>1.50689561451145e-06</v>
+        <v>0.03941873461008072</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.062821522486047e-06</v>
+        <v>0.03279562294483185</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7.801641572768858e-07</v>
+        <v>0.0690215677022934</v>
       </c>
       <c r="AR12" t="n">
-        <v>2.651486852300877e-08</v>
+        <v>0.03677081316709518</v>
       </c>
       <c r="AS12" t="n">
-        <v>3.536110398272285e-06</v>
+        <v>0.1118898838758469</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.576814262691187e-06</v>
+        <v>0.07533340156078339</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.955807601916604e-05</v>
+        <v>0.5458341240882874</v>
       </c>
       <c r="AV12" t="n">
-        <v>3.361396920809057e-07</v>
+        <v>0.07092553377151489</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.8926892708987e-06</v>
+        <v>0.29111248254776</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.398420519966749e-06</v>
+        <v>0.1271030306816101</v>
       </c>
       <c r="AY12" t="n">
-        <v>2.472170535838814e-06</v>
+        <v>0.1239854916930199</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4.253631686879089e-06</v>
+        <v>0.151570737361908</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.409291028016014e-06</v>
+        <v>0.07507315278053284</v>
       </c>
       <c r="BB12" t="n">
-        <v>5.484323537530145e-06</v>
+        <v>0.1837088614702225</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.385105628694873e-06</v>
+        <v>0.1242782026529312</v>
       </c>
       <c r="BD12" t="n">
-        <v>7.467190698662307e-06</v>
+        <v>0.08192837238311768</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.649454361540847e-06</v>
+        <v>0.2010891437530518</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.559410884510726e-05</v>
+        <v>0.1565120220184326</v>
       </c>
       <c r="BG12" t="n">
-        <v>2.244187271571718e-06</v>
+        <v>0.2148087471723557</v>
       </c>
       <c r="BH12" t="n">
-        <v>3.306501866973122e-06</v>
+        <v>0.1793549656867981</v>
       </c>
       <c r="BI12" t="n">
-        <v>5.377712113840971e-06</v>
+        <v>0.08288207650184631</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.583832952041121e-07</v>
+        <v>0.02873155847191811</v>
       </c>
       <c r="BK12" t="n">
-        <v>9.131626029557083e-06</v>
+        <v>0.1361219584941864</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.839454282366205e-06</v>
+        <v>0.00694417767226696</v>
       </c>
       <c r="BM12" t="n">
-        <v>7.173914127633907e-06</v>
+        <v>0.1646681129932404</v>
       </c>
       <c r="BN12" t="n">
-        <v>3.360822120157536e-06</v>
+        <v>0.1423732340335846</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.121082616213243e-07</v>
+        <v>0.05394769459962845</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.232530732726445e-06</v>
+        <v>0.04218883067369461</v>
       </c>
       <c r="BQ12" t="n">
-        <v>6.040483185643097e-06</v>
+        <v>0.0567091628909111</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.989201220771065e-06</v>
+        <v>0.0005670003592967987</v>
       </c>
       <c r="BS12" t="n">
-        <v>1.475379576731939e-06</v>
+        <v>0.01505215093493462</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.055857865139842e-06</v>
+        <v>0.09331595897674561</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.890283096552594e-06</v>
+        <v>0.08014549314975739</v>
       </c>
       <c r="BV12" t="n">
-        <v>6.680396381852916e-06</v>
+        <v>0.3627381324768066</v>
       </c>
       <c r="BW12" t="n">
-        <v>2.281412889715284e-06</v>
+        <v>0.1289366483688354</v>
       </c>
       <c r="BX12" t="n">
-        <v>8.175607945304364e-06</v>
+        <v>0.3019004464149475</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.030283783620689e-06</v>
+        <v>0.1518889963626862</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.229487679665908e-06</v>
+        <v>0.01555987633764744</v>
       </c>
       <c r="CA12" t="n">
-        <v>4.220495611662045e-06</v>
+        <v>0.08585503697395325</v>
       </c>
       <c r="CB12" t="n">
-        <v>4.081464339833474e-07</v>
+        <v>0.03967424482107162</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.977638127456885e-06</v>
+        <v>0.2144716382026672</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.679499968711752e-06</v>
+        <v>0.03053701296448708</v>
       </c>
       <c r="CE12" t="n">
-        <v>6.567767741216812e-06</v>
+        <v>0.04236303642392159</v>
       </c>
       <c r="CF12" t="n">
-        <v>2.04530169867212e-06</v>
+        <v>0.1361896842718124</v>
       </c>
       <c r="CG12" t="n">
-        <v>5.669432539434638e-06</v>
+        <v>0.1285027265548706</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.114485712605529e-06</v>
+        <v>0.01386986300349236</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.766070226949523e-06</v>
+        <v>0.08213552832603455</v>
       </c>
       <c r="CJ12" t="n">
-        <v>5.011376202901374e-08</v>
+        <v>0.01814742013812065</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.729623353545321e-07</v>
+        <v>0.0162659827619791</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.465802910161074e-07</v>
+        <v>0.07944407314062119</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.565776869938418e-06</v>
+        <v>0.09236112982034683</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.474565346550662e-08</v>
+        <v>0.04501552879810333</v>
       </c>
       <c r="CO12" t="n">
-        <v>6.48312834528042e-08</v>
+        <v>0.09773615747690201</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.271638661317411e-06</v>
+        <v>0.08900231868028641</v>
       </c>
       <c r="CQ12" t="n">
-        <v>8.945729859988205e-06</v>
+        <v>0.08313791453838348</v>
       </c>
       <c r="CR12" t="n">
-        <v>7.90431113273371e-06</v>
+        <v>0.2413889169692993</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.203517740577809e-06</v>
+        <v>0.1489372849464417</v>
       </c>
       <c r="CT12" t="n">
-        <v>5.902852990402607e-06</v>
+        <v>0.006284761242568493</v>
       </c>
       <c r="CU12" t="n">
-        <v>1.136256969402893e-06</v>
+        <v>0.1077622100710869</v>
       </c>
       <c r="CV12" t="n">
-        <v>4.06789376938832e-06</v>
+        <v>0.02388835325837135</v>
       </c>
       <c r="CW12" t="n">
-        <v>6.602488610951696e-06</v>
+        <v>0.04962355270981789</v>
       </c>
       <c r="CX12" t="n">
-        <v>2.085590494971257e-06</v>
+        <v>0.1267956048250198</v>
       </c>
       <c r="CY12" t="n">
-        <v>5.906654678256018e-06</v>
+        <v>0.1491245925426483</v>
       </c>
       <c r="CZ12" t="n">
-        <v>1.182297637569718e-06</v>
+        <v>4.986405838280916e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>3.899934313267295e-07</v>
+        <v>0.1308717578649521</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.844874759626691e-07</v>
+        <v>0.04199987649917603</v>
       </c>
       <c r="DC12" t="n">
-        <v>1.69980182818108e-06</v>
+        <v>0.06374893337488174</v>
       </c>
       <c r="DD12" t="n">
-        <v>4.607408641277289e-07</v>
+        <v>0.02441375143826008</v>
       </c>
       <c r="DE12" t="n">
-        <v>7.324159923882689e-06</v>
+        <v>0.02590355090796947</v>
       </c>
       <c r="DF12" t="n">
-        <v>5.590616183326347e-06</v>
+        <v>0.05961361527442932</v>
       </c>
       <c r="DG12" t="n">
-        <v>5.082997176941717e-06</v>
+        <v>0.02773204073309898</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.737810407576035e-06</v>
+        <v>0.4036785662174225</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.369344772683689e-06</v>
+        <v>0.008607608266174793</v>
       </c>
       <c r="DJ12" t="n">
-        <v>4.262387847120408e-06</v>
+        <v>0.3303596973419189</v>
       </c>
       <c r="DK12" t="n">
-        <v>5.597794825007441e-06</v>
+        <v>0.003645777702331543</v>
       </c>
       <c r="DL12" t="n">
-        <v>5.152431185706519e-06</v>
+        <v>0.06179098784923553</v>
       </c>
       <c r="DM12" t="n">
-        <v>4.96369239044725e-08</v>
+        <v>0.1554031223058701</v>
       </c>
       <c r="DN12" t="n">
-        <v>2.387486119914684e-06</v>
+        <v>0.0276599358767271</v>
       </c>
       <c r="DO12" t="n">
-        <v>7.784926765452838e-07</v>
+        <v>0.04592126607894897</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.813611561374273e-06</v>
+        <v>0.008618693798780441</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.213804807775887e-06</v>
+        <v>0.08957748115062714</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.754725531100121e-06</v>
+        <v>0.02755921334028244</v>
       </c>
       <c r="DS12" t="n">
-        <v>2.260647988805431e-06</v>
+        <v>0.07060455530881882</v>
       </c>
       <c r="DT12" t="n">
-        <v>1.309920321546088e-06</v>
+        <v>0.1451726257801056</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.803545728762401e-06</v>
+        <v>0.008824562653899193</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.77194237949152e-06</v>
+        <v>0.2186432927846909</v>
       </c>
       <c r="DW12" t="n">
-        <v>4.02042729774621e-07</v>
+        <v>0.03559484705328941</v>
       </c>
       <c r="DX12" t="n">
-        <v>3.143582489428809e-06</v>
+        <v>0.06342457234859467</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.530121608084301e-06</v>
+        <v>0.1418058276176453</v>
       </c>
       <c r="DZ12" t="n">
-        <v>5.768358278146479e-06</v>
+        <v>0.1379752457141876</v>
       </c>
       <c r="EA12" t="n">
-        <v>1.848276724558673e-06</v>
+        <v>0.02953107096254826</v>
       </c>
       <c r="EB12" t="n">
-        <v>3.329613264213549e-06</v>
+        <v>0.03860807791352272</v>
       </c>
       <c r="EC12" t="n">
-        <v>4.174575849447137e-07</v>
+        <v>0.03334014862775803</v>
       </c>
       <c r="ED12" t="n">
-        <v>2.477470161466044e-06</v>
+        <v>0.1001552566885948</v>
       </c>
       <c r="EE12" t="n">
-        <v>7.128735433070688e-07</v>
+        <v>0.1474481672048569</v>
       </c>
       <c r="EF12" t="n">
-        <v>1.869390302999818e-06</v>
+        <v>0.05140886083245277</v>
       </c>
       <c r="EG12" t="n">
-        <v>9.228678209183272e-06</v>
+        <v>0.01435520872473717</v>
       </c>
       <c r="EH12" t="n">
-        <v>8.867712040228071e-07</v>
+        <v>0.1497894823551178</v>
       </c>
       <c r="EI12" t="n">
-        <v>9.915936971083283e-06</v>
+        <v>0.07861195504665375</v>
       </c>
       <c r="EJ12" t="n">
-        <v>7.49673517930205e-06</v>
+        <v>0.02102830819785595</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.562166628194973e-06</v>
+        <v>0.151550680398941</v>
       </c>
       <c r="EL12" t="n">
-        <v>3.871656701903703e-07</v>
+        <v>0.01444538589566946</v>
       </c>
       <c r="EM12" t="n">
-        <v>1.411487232871877e-06</v>
+        <v>0.07165887206792831</v>
       </c>
       <c r="EN12" t="n">
-        <v>2.150293994418462e-06</v>
+        <v>0.002507697325199842</v>
       </c>
       <c r="EO12" t="n">
-        <v>5.066684934718069e-06</v>
+        <v>0.04174325987696648</v>
       </c>
       <c r="EP12" t="n">
-        <v>4.239971531205811e-06</v>
+        <v>0.06323274224996567</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.655123242016998e-06</v>
+        <v>0.1002791821956635</v>
       </c>
       <c r="ER12" t="n">
-        <v>1.746201405694592e-06</v>
+        <v>0.05628332868218422</v>
       </c>
       <c r="ES12" t="n">
-        <v>3.170476020386559e-06</v>
+        <v>0.02968720719218254</v>
       </c>
       <c r="ET12" t="n">
-        <v>1.794599825188925e-06</v>
+        <v>0.207510843873024</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.548734644529759e-06</v>
+        <v>0.07435087859630585</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.697215225249238e-06</v>
+        <v>0.06762930750846863</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.000562737222936e-07</v>
+        <v>0.007294413633644581</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.044171307919896e-06</v>
+        <v>0.01209015399217606</v>
       </c>
       <c r="EY12" t="n">
-        <v>5.987822078168392e-06</v>
+        <v>0.0357331708073616</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.684421135905723e-06</v>
+        <v>0.1143086850643158</v>
       </c>
       <c r="FA12" t="n">
-        <v>5.684421012119856e-06</v>
+        <v>0.1698194891214371</v>
       </c>
       <c r="FB12" t="n">
-        <v>6.83558596392686e-07</v>
+        <v>0.0004669715999625623</v>
       </c>
       <c r="FC12" t="n">
-        <v>9.445973887522996e-07</v>
+        <v>0.09682168066501617</v>
       </c>
       <c r="FD12" t="n">
-        <v>3.058937636524206e-08</v>
+        <v>0.05657102912664413</v>
       </c>
       <c r="FE12" t="n">
-        <v>8.543034368813096e-07</v>
+        <v>0.001390863209962845</v>
       </c>
       <c r="FF12" t="n">
-        <v>1.167838036053581e-06</v>
+        <v>0.07574377954006195</v>
       </c>
       <c r="FG12" t="n">
-        <v>1.346813519376155e-06</v>
+        <v>0.03614454716444016</v>
       </c>
       <c r="FH12" t="n">
-        <v>3.169831188643002e-06</v>
+        <v>0.01774108037352562</v>
       </c>
       <c r="FI12" t="n">
-        <v>4.261168555785844e-07</v>
+        <v>0.05196620896458626</v>
       </c>
       <c r="FJ12" t="n">
-        <v>3.679064775496954e-06</v>
+        <v>0.03544648364186287</v>
       </c>
       <c r="FK12" t="n">
-        <v>1.099053292819008e-06</v>
+        <v>0.08401897549629211</v>
       </c>
       <c r="FL12" t="n">
-        <v>4.439048097992782e-06</v>
+        <v>0.0005629071965813637</v>
       </c>
       <c r="FM12" t="n">
-        <v>9.962107014871435e-07</v>
+        <v>0.06037409976124763</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.78894811142527e-06</v>
+        <v>0.04489265382289886</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.502593022451038e-06</v>
+        <v>0.06671370565891266</v>
       </c>
       <c r="FP12" t="n">
-        <v>7.59852412102191e-07</v>
+        <v>0.02768057025969028</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.13434452941874e-06</v>
+        <v>0.08322539925575256</v>
       </c>
       <c r="FR12" t="n">
-        <v>7.829089554434177e-07</v>
+        <v>0.03976264595985413</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.611295829206938e-06</v>
+        <v>0.2193363010883331</v>
       </c>
       <c r="FT12" t="n">
-        <v>2.543248228903394e-06</v>
+        <v>0.1078132092952728</v>
       </c>
       <c r="FU12" t="n">
-        <v>3.283744035798009e-06</v>
+        <v>0.1167354881763458</v>
       </c>
       <c r="FV12" t="n">
-        <v>2.899473201978253e-06</v>
+        <v>0.1208330392837524</v>
       </c>
       <c r="FW12" t="n">
-        <v>6.826610388088739e-08</v>
+        <v>0.05974160134792328</v>
       </c>
       <c r="FX12" t="n">
-        <v>3.494618113109027e-06</v>
+        <v>0.05369953811168671</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.149666215700563e-06</v>
+        <v>0.1207876652479172</v>
       </c>
       <c r="FZ12" t="n">
-        <v>2.474657549100812e-06</v>
+        <v>0.05413390323519707</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.725107495076372e-06</v>
+        <v>0.1374504566192627</v>
       </c>
       <c r="GB12" t="n">
-        <v>5.290861736284569e-06</v>
+        <v>0.007601168006658554</v>
       </c>
       <c r="GC12" t="n">
-        <v>2.603298753456329e-06</v>
+        <v>0.1590022593736649</v>
       </c>
       <c r="GD12" t="n">
-        <v>1.397341065967339e-06</v>
+        <v>0.06773366034030914</v>
       </c>
       <c r="GE12" t="n">
-        <v>3.205208940926241e-06</v>
+        <v>0.5297370553016663</v>
       </c>
       <c r="GF12" t="n">
-        <v>4.948058176523773e-06</v>
+        <v>0.05236758664250374</v>
       </c>
       <c r="GG12" t="n">
-        <v>1.797181994334096e-07</v>
+        <v>0.003390021622180939</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.001744160195812583</v>
+        <v>0.002080370672047138</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004475945606827736</v>
+        <v>0.01258325111120939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01980738528072834</v>
+        <v>0.0009234099416062236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0670488253235817</v>
+        <v>0.01305533107370138</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01882853172719479</v>
+        <v>0.00641298945993185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006722673308104277</v>
+        <v>0.004313028883188963</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006937949918210506</v>
+        <v>0.004045373760163784</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07697904855012894</v>
+        <v>0.0007575667696073651</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01170811522752047</v>
+        <v>0.002185535617172718</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002130267210304737</v>
+        <v>0.001834781956858933</v>
       </c>
       <c r="K13" t="n">
-        <v>0.004438245203346014</v>
+        <v>0.01076766289770603</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01232448033988476</v>
+        <v>0.000386673491448164</v>
       </c>
       <c r="M13" t="n">
-        <v>0.06059582903981209</v>
+        <v>0.008597916923463345</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04085714370012283</v>
+        <v>0.004467890597879887</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01749961450695992</v>
+        <v>0.003645761404186487</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001054910011589527</v>
+        <v>0.004312280565500259</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0929381474852562</v>
+        <v>0.001759860664606094</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01336420513689518</v>
+        <v>0.001848865300416946</v>
       </c>
       <c r="S13" t="n">
-        <v>0.004287065006792545</v>
+        <v>0.0005323252407833934</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0148107036948204</v>
+        <v>0.002308001508936286</v>
       </c>
       <c r="U13" t="n">
-        <v>0.006829962134361267</v>
+        <v>0.003138643456622958</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0003375733504071832</v>
+        <v>0.004272224847227335</v>
       </c>
       <c r="W13" t="n">
-        <v>0.04050036519765854</v>
+        <v>0.003235800191760063</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01077620033174753</v>
+        <v>0.003126200754195452</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.002436409005895257</v>
+        <v>0.0009012646041810513</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.03058569505810738</v>
+        <v>0.002211190760135651</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001774614676833153</v>
+        <v>0.000231933212489821</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01254505291581154</v>
+        <v>0.0003117661690339446</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003879990195855498</v>
+        <v>0.002411828842014074</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.006985179614275694</v>
+        <v>0.002377065131440759</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01888768933713436</v>
+        <v>0.004263085313141346</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003990974277257919</v>
+        <v>0.001677476102486253</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.002074047923088074</v>
+        <v>0.00179852161090821</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.02063892036676407</v>
+        <v>0.0002645051572471857</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01201012264937162</v>
+        <v>0.002478953450918198</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.007699733600020409</v>
+        <v>0.001816352712921798</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.003737516002729535</v>
+        <v>0.002219523536041379</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.00445279385894537</v>
+        <v>0.002555751241743565</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003855229122564197</v>
+        <v>0.000344418833265081</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.005135113373398781</v>
+        <v>0.000725508900359273</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.02307561226189137</v>
+        <v>0.002207467798143625</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001194006763398647</v>
+        <v>0.001578445313498378</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.003702729940414429</v>
+        <v>0.001556748757138848</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.003081190166994929</v>
+        <v>0.001059644855558872</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.001677163993008435</v>
+        <v>0.0003584911464713514</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.00364626245573163</v>
+        <v>0.002869294956326485</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.006860444322228432</v>
+        <v>0.005986679811030626</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.001522596925497055</v>
+        <v>0.0001015792950056493</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.02139159478247166</v>
+        <v>0.005457682069391012</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0132525097578764</v>
+        <v>0.004991800058633089</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0008723328355699778</v>
+        <v>0.002267710398882627</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01244764775037766</v>
+        <v>0.002108003245666623</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0423632487654686</v>
+        <v>0.003265776438638568</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.007764663547277451</v>
+        <v>0.001724861795082688</v>
       </c>
       <c r="BC13" t="n">
-        <v>4.762900061905384e-06</v>
+        <v>0.001521994359791279</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.006285045295953751</v>
+        <v>0.004600930493324995</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001907673664391041</v>
+        <v>0.002060942584648728</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.03090783022344112</v>
+        <v>0.00572574557736516</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.007278576493263245</v>
+        <v>0.00204526586458087</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.006132565438747406</v>
+        <v>0.002923771739006042</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0119185596704483</v>
+        <v>0.001868747407570481</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.01607820019125938</v>
+        <v>0.001063313102349639</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.008723855018615723</v>
+        <v>0.00118923035915941</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.003678279230371118</v>
+        <v>0.003646989818662405</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001313792425207794</v>
+        <v>0.001081992872059345</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.007797612808644772</v>
+        <v>0.0007089398568496108</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.008009315468370914</v>
+        <v>0.002315685153007507</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.007729037199169397</v>
+        <v>0.002344429958611727</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001400772714987397</v>
+        <v>0.003129385877400637</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.01715199090540409</v>
+        <v>0.002983642974868417</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.01153501123189926</v>
+        <v>0.0006989650428295135</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0008824074175208807</v>
+        <v>0.0009793131612241268</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.01662067882716656</v>
+        <v>0.003896054113283753</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.002606323454529047</v>
+        <v>0.004260050598531961</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.005588461644947529</v>
+        <v>0.000452881446108222</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.01795712672173977</v>
+        <v>0.003141648136079311</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.007148039061576128</v>
+        <v>9.373092325404286e-06</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.004446729086339474</v>
+        <v>0.005007043480873108</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.01268542185425758</v>
+        <v>0.002030300442129374</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.03454918414354324</v>
+        <v>0.0001168751914519817</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.00054026092402637</v>
+        <v>7.064713281579316e-05</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.005429998971521854</v>
+        <v>0.0007749549695290625</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001038940157741308</v>
+        <v>0.0006706573185510933</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.003785606240853667</v>
+        <v>4.909159179078415e-05</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.01115685515105724</v>
+        <v>0.00337670324370265</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01003002934157848</v>
+        <v>0.001156184589490294</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.002396219875663519</v>
+        <v>0.002185510937124491</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0002198782749474049</v>
+        <v>0.0004599181411322206</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01536675356328487</v>
+        <v>0.0002286338130943477</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0005137567641213536</v>
+        <v>0.0008173417882062495</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.00522588100284338</v>
+        <v>0.001753337681293488</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.005894931498914957</v>
+        <v>0.001379540539346635</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.006891536992043257</v>
+        <v>0.00181967148091644</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.007235287223011255</v>
+        <v>0.003765196306630969</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.02756113559007645</v>
+        <v>0.0008714115829207003</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.02379943989217281</v>
+        <v>0.001488008652813733</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.003691868856549263</v>
+        <v>0.00367676792666316</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.005130835808813572</v>
+        <v>0.001686232862994075</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.01119458302855492</v>
+        <v>4.045186869916506e-07</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.007106164935976267</v>
+        <v>0.001227673492394388</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.006166479550302029</v>
+        <v>0.0005759921041317284</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.005768477916717529</v>
+        <v>0.0001284845930058509</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.009975293651223183</v>
+        <v>0.002946464810520411</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.009100413881242275</v>
+        <v>0.002073074458166957</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.002869471907615662</v>
+        <v>0.002274716040119529</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0003936276771128178</v>
+        <v>0.0001047754922183231</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.01640345714986324</v>
+        <v>0.0002307929389644414</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.001183638582006097</v>
+        <v>0.0003464996698312461</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.004085391759872437</v>
+        <v>0.001264972612261772</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.00978375319391489</v>
+        <v>0.008947566151618958</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01724959723651409</v>
+        <v>0.003505128202959895</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001785475295037031</v>
+        <v>0.007630012463778257</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.00602160207927227</v>
+        <v>0.00284630386158824</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.002769479993730783</v>
+        <v>0.0009197794133797288</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.002171379746869206</v>
+        <v>0.001205693697556853</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.007115108426660299</v>
+        <v>0.002586270682513714</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.007102935574948788</v>
+        <v>0.000438264396507293</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.003650546306744218</v>
+        <v>0.003427519463002682</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.005934001877903938</v>
+        <v>0.0004456953029148281</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.007691420614719391</v>
+        <v>0.001508941408246756</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.002927621826529503</v>
+        <v>0.004841572139412165</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0133556304499507</v>
+        <v>0.003494894364848733</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0004266188479959965</v>
+        <v>0.002324451459571719</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.009904636070132256</v>
+        <v>0.002175886183977127</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.00646496145054698</v>
+        <v>0.0002020107640419155</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.007547509856522083</v>
+        <v>0.001879470772109926</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.00787036307156086</v>
+        <v>0.00151087692938745</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.01163686811923981</v>
+        <v>0.0005916439113207161</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.006701054517179728</v>
+        <v>9.182970097754151e-05</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.006769490893930197</v>
+        <v>0.001727420138195157</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.002595924073830247</v>
+        <v>0.001578939496539533</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.006757907103747129</v>
+        <v>0.00102900667116046</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.004150224383920431</v>
+        <v>0.001694543519988656</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.005211918614804745</v>
+        <v>0.0002460907853674144</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.002184488344937563</v>
+        <v>0.003192240837961435</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.007573755923658609</v>
+        <v>0.001162428525276482</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.002165746409446001</v>
+        <v>0.0009491678792983294</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.004747142549604177</v>
+        <v>0.0004045457171741873</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.02102392166852951</v>
+        <v>0.0008550224592909217</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.005953255575150251</v>
+        <v>0.0004557787906378508</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.005596796050667763</v>
+        <v>0.00237265694886446</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.004345759749412537</v>
+        <v>0.0007479953346773982</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.02266236208379269</v>
+        <v>0.001270082197152078</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.003083400428295135</v>
+        <v>0.0004736649570986629</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0102105587720871</v>
+        <v>0.002106410916894674</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.006307794712483883</v>
+        <v>0.0008644356857985258</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01048985775560141</v>
+        <v>0.001184642198495567</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.002511719474568963</v>
+        <v>0.0007839989848434925</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.009946990758180618</v>
+        <v>0.003133983816951513</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.004011609125882387</v>
+        <v>0.006928705610334873</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0009072446264326572</v>
+        <v>0.0006053439574316144</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.005504531785845757</v>
+        <v>0.0002881091786548495</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.006903838366270065</v>
+        <v>0.000868246250320226</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.004491153173148632</v>
+        <v>0.001827905653044581</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.004743625875562429</v>
+        <v>0.0005554331000894308</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.005129305645823479</v>
+        <v>0.0001383994822390378</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0115741053596139</v>
+        <v>0.0028814144898206</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.01209471933543682</v>
+        <v>0.001299245283007622</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.00305496621876955</v>
+        <v>0.002153939101845026</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001926614786498249</v>
+        <v>0.0001872443972388282</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.01666839420795441</v>
+        <v>0.0001787089859135449</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.001581293763592839</v>
+        <v>0.0002644954656716436</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.003352615050971508</v>
+        <v>0.002473545493558049</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.006378154270350933</v>
+        <v>0.001909372047521174</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.00330156646668911</v>
+        <v>0.001270174980163574</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.004733840934932232</v>
+        <v>0.0006377266836352646</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.01299513503909111</v>
+        <v>0.0001401647750753909</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.007150995545089245</v>
+        <v>0.001209316891618073</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.002483500866219401</v>
+        <v>0.0004822304472327232</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.004573824349790812</v>
+        <v>0.0005288008833304048</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.001612206222489476</v>
+        <v>0.002331100171431899</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.01665870845317841</v>
+        <v>0.002258549677208066</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.008075053803622723</v>
+        <v>0.003029996529221535</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.01313801761716604</v>
+        <v>0.003675574902445078</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.008624497801065445</v>
+        <v>0.0002926423621829599</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004291446413844824</v>
+        <v>0.001593897119164467</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0001252891088370234</v>
+        <v>0.0006660125218331814</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.01590229570865631</v>
+        <v>0.0009609741391614079</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.01976494863629341</v>
+        <v>0.0009356634691357613</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.006347523536533117</v>
+        <v>0.0008974420488812029</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.01732473820447922</v>
+        <v>0.001508664339780807</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.00585480872541666</v>
+        <v>0.001703290618024766</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001160835381597281</v>
+        <v>0.001542625715956092</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.009835113771259785</v>
+        <v>0.0007301957812160254</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.007228541187942028</v>
+        <v>0.003409279976040125</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01530330907553434</v>
+        <v>0.002481191186234355</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.009906066581606865</v>
+        <v>0.001226006075739861</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.00415441207587719</v>
+        <v>0.004305345937609673</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.003399772103875875</v>
+        <v>0.002462134696543217</v>
       </c>
     </row>
   </sheetData>
